--- a/Twitter Sentiment - Local/twitternames.xlsx
+++ b/Twitter Sentiment - Local/twitternames.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11775"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11775" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Brexit" sheetId="2" r:id="rId1"/>
+    <sheet name="Margins" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="339">
   <si>
     <t>LibDem</t>
   </si>
@@ -291,12 +292,766 @@
   </si>
   <si>
     <t>@rabearman17</t>
+  </si>
+  <si>
+    <t>constituency_name</t>
+  </si>
+  <si>
+    <t>party_name</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>surname</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>sitting_mp</t>
+  </si>
+  <si>
+    <t>former_mp</t>
+  </si>
+  <si>
+    <t>votes</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>change</t>
+  </si>
+  <si>
+    <t>win</t>
+  </si>
+  <si>
+    <t>Gower</t>
+  </si>
+  <si>
+    <t>Conservative</t>
+  </si>
+  <si>
+    <t>Byron</t>
+  </si>
+  <si>
+    <t>Davies</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Labour</t>
+  </si>
+  <si>
+    <t>Liz</t>
+  </si>
+  <si>
+    <t>Evans</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Derby North</t>
+  </si>
+  <si>
+    <t>Amanda</t>
+  </si>
+  <si>
+    <t>Solloway</t>
+  </si>
+  <si>
+    <t>Chris</t>
+  </si>
+  <si>
+    <t>Williamson</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>City Of Chester</t>
+  </si>
+  <si>
+    <t>Matheson</t>
+  </si>
+  <si>
+    <t>Stephen</t>
+  </si>
+  <si>
+    <t>Mosley</t>
+  </si>
+  <si>
+    <t>Gavin</t>
+  </si>
+  <si>
+    <t>Barwell</t>
+  </si>
+  <si>
+    <t>Sarah</t>
+  </si>
+  <si>
+    <t>Jones</t>
+  </si>
+  <si>
+    <t>Ynys Mon</t>
+  </si>
+  <si>
+    <t>Albert</t>
+  </si>
+  <si>
+    <t>Owen</t>
+  </si>
+  <si>
+    <t>Plaid Cymru</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Rowlands</t>
+  </si>
+  <si>
+    <t>Vale Of Clwyd</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>Ruane</t>
+  </si>
+  <si>
+    <t>Ealing Central and Acton</t>
+  </si>
+  <si>
+    <t>Rupa</t>
+  </si>
+  <si>
+    <t>Huq</t>
+  </si>
+  <si>
+    <t>Angie</t>
+  </si>
+  <si>
+    <t>Bray</t>
+  </si>
+  <si>
+    <t>Scottish National Party</t>
+  </si>
+  <si>
+    <t>Calum</t>
+  </si>
+  <si>
+    <t>Kerr</t>
+  </si>
+  <si>
+    <t>Lamont</t>
+  </si>
+  <si>
+    <t>Bury North</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Nuttall</t>
+  </si>
+  <si>
+    <t>Frith</t>
+  </si>
+  <si>
+    <t>Wirral West</t>
+  </si>
+  <si>
+    <t>Margaret</t>
+  </si>
+  <si>
+    <t>Greenwood</t>
+  </si>
+  <si>
+    <t>Esther</t>
+  </si>
+  <si>
+    <t>McVey</t>
+  </si>
+  <si>
+    <t>Morley and Outwood</t>
+  </si>
+  <si>
+    <t>Andrea</t>
+  </si>
+  <si>
+    <t>Jenkyns</t>
+  </si>
+  <si>
+    <t>Labour and Co-operative</t>
+  </si>
+  <si>
+    <t>Ed</t>
+  </si>
+  <si>
+    <t>Balls</t>
+  </si>
+  <si>
+    <t>Halifax</t>
+  </si>
+  <si>
+    <t>Holly</t>
+  </si>
+  <si>
+    <t>Lynch</t>
+  </si>
+  <si>
+    <t>Philip</t>
+  </si>
+  <si>
+    <t>Allott</t>
+  </si>
+  <si>
+    <t>Brentford and Isleworth</t>
+  </si>
+  <si>
+    <t>Ruth</t>
+  </si>
+  <si>
+    <t>Cadbury</t>
+  </si>
+  <si>
+    <t>Mary</t>
+  </si>
+  <si>
+    <t>MacLeod</t>
+  </si>
+  <si>
+    <t>Plymouth, Sutton and Devonport</t>
+  </si>
+  <si>
+    <t>Oliver</t>
+  </si>
+  <si>
+    <t>Colvile</t>
+  </si>
+  <si>
+    <t>Luke</t>
+  </si>
+  <si>
+    <t>Pollard</t>
+  </si>
+  <si>
+    <t>Fermanagh and South Tyrone</t>
+  </si>
+  <si>
+    <t>Ulster Unionist Party</t>
+  </si>
+  <si>
+    <t>UUP</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
+    <t>Elliott</t>
+  </si>
+  <si>
+    <t>Sinn Fein</t>
+  </si>
+  <si>
+    <t>SF</t>
+  </si>
+  <si>
+    <t>Michelle</t>
+  </si>
+  <si>
+    <t>Gildernew</t>
+  </si>
+  <si>
+    <t>Thurrock</t>
+  </si>
+  <si>
+    <t>Jackie</t>
+  </si>
+  <si>
+    <t>Doyle-Price</t>
+  </si>
+  <si>
+    <t>Polly</t>
+  </si>
+  <si>
+    <t>Billington</t>
+  </si>
+  <si>
+    <t>Ilford North</t>
+  </si>
+  <si>
+    <t>Wes</t>
+  </si>
+  <si>
+    <t>Streeting</t>
+  </si>
+  <si>
+    <t>Lee</t>
+  </si>
+  <si>
+    <t>Scott</t>
+  </si>
+  <si>
+    <t>Cambridge</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Zeichner</t>
+  </si>
+  <si>
+    <t>Liberal Democrat</t>
+  </si>
+  <si>
+    <t>LD</t>
+  </si>
+  <si>
+    <t>Julian</t>
+  </si>
+  <si>
+    <t>Huppert</t>
+  </si>
+  <si>
+    <t>Newcastle-Under-Lyme</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
+    <t>Farrelly</t>
+  </si>
+  <si>
+    <t>Tony</t>
+  </si>
+  <si>
+    <t>Cox</t>
+  </si>
+  <si>
+    <t>Brighton, Kemptown</t>
+  </si>
+  <si>
+    <t>Simon</t>
+  </si>
+  <si>
+    <t>Kirby</t>
+  </si>
+  <si>
+    <t>Nancy</t>
+  </si>
+  <si>
+    <t>Platts</t>
+  </si>
+  <si>
+    <t>Telford</t>
+  </si>
+  <si>
+    <t>Lucy</t>
+  </si>
+  <si>
+    <t>Allan</t>
+  </si>
+  <si>
+    <t>Wright</t>
+  </si>
+  <si>
+    <t>Eastbourne</t>
+  </si>
+  <si>
+    <t>Caroline</t>
+  </si>
+  <si>
+    <t>Ansell</t>
+  </si>
+  <si>
+    <t>Lloyd</t>
+  </si>
+  <si>
+    <t>Barrow and Furness</t>
+  </si>
+  <si>
+    <t>Woodcock</t>
+  </si>
+  <si>
+    <t>Fell</t>
+  </si>
+  <si>
+    <t>Dumfriesshire, Clydesdale and Tweeddale</t>
+  </si>
+  <si>
+    <t>Mundell</t>
+  </si>
+  <si>
+    <t>Emma</t>
+  </si>
+  <si>
+    <t>Harper</t>
+  </si>
+  <si>
+    <t>Bolton West</t>
+  </si>
+  <si>
+    <t>Wolverhampton South West</t>
+  </si>
+  <si>
+    <t>Rob</t>
+  </si>
+  <si>
+    <t>Marris</t>
+  </si>
+  <si>
+    <t>Uppal</t>
+  </si>
+  <si>
+    <t>Julie</t>
+  </si>
+  <si>
+    <t>Hilling</t>
+  </si>
+  <si>
+    <t>Weaver Vale</t>
+  </si>
+  <si>
+    <t>Graham</t>
+  </si>
+  <si>
+    <t>Julia</t>
+  </si>
+  <si>
+    <t>Tickridge</t>
+  </si>
+  <si>
+    <t>Orkney and Shetland</t>
+  </si>
+  <si>
+    <t>Alistair</t>
+  </si>
+  <si>
+    <t>Carmichael</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Danus </t>
+  </si>
+  <si>
+    <t>Skene</t>
+  </si>
+  <si>
+    <t>Belfast South</t>
+  </si>
+  <si>
+    <t>Social Democratic and Labour Party</t>
+  </si>
+  <si>
+    <t>SDLP</t>
+  </si>
+  <si>
+    <t>Alasdair</t>
+  </si>
+  <si>
+    <t>McDonnell</t>
+  </si>
+  <si>
+    <t>Democratic Unionist Party</t>
+  </si>
+  <si>
+    <t>DUP</t>
+  </si>
+  <si>
+    <t>Jonathan</t>
+  </si>
+  <si>
+    <t>Bell</t>
+  </si>
+  <si>
+    <t>South Antrim</t>
+  </si>
+  <si>
+    <t>Danny</t>
+  </si>
+  <si>
+    <t>Kinahan</t>
+  </si>
+  <si>
+    <t>William</t>
+  </si>
+  <si>
+    <t>McCrea</t>
+  </si>
+  <si>
+    <t>difference</t>
+  </si>
+  <si>
+    <t>twitter</t>
+  </si>
+  <si>
+    <t>@Byron_Davies</t>
+  </si>
+  <si>
+    <t>@ToniaAntoniazzi</t>
+  </si>
+  <si>
+    <t>Party</t>
+  </si>
+  <si>
+    <t>@HowardWilliamEv</t>
+  </si>
+  <si>
+    <t>@ASollowayUK</t>
+  </si>
+  <si>
+    <t>@ChriswMP</t>
+  </si>
+  <si>
+    <t>@Lucycare</t>
+  </si>
+  <si>
+    <t>Lucy Care</t>
+  </si>
+  <si>
+    <t>Howard William Evans</t>
+  </si>
+  <si>
+    <t>@ChrisM4Chester</t>
+  </si>
+  <si>
+    <t>Tonia Antoniazzi</t>
+  </si>
+  <si>
+    <t>Will Gallagher</t>
+  </si>
+  <si>
+    <t>@elizabethjewkes</t>
+  </si>
+  <si>
+    <t>Elizabeth Jewkes</t>
+  </si>
+  <si>
+    <t>@Rhosmeirch</t>
+  </si>
+  <si>
+    <t>Ieuan Wyn Jones</t>
+  </si>
+  <si>
+    <t>@AlbertOwenMP</t>
+  </si>
+  <si>
+    <t>@JamesDavies</t>
+  </si>
+  <si>
+    <t>@ChrisRuane2017</t>
+  </si>
+  <si>
+    <t>@wgwynwilliams</t>
+  </si>
+  <si>
+    <t>Gwyn Williams</t>
+  </si>
+  <si>
+    <t>David Lee Wyatt</t>
+  </si>
+  <si>
+    <t>@RupaHuq</t>
+  </si>
+  <si>
+    <t>Joy Morrissey</t>
+  </si>
+  <si>
+    <t>@joymorrissey</t>
+  </si>
+  <si>
+    <t>Jon Ball</t>
+  </si>
+  <si>
+    <t>@JonBall</t>
+  </si>
+  <si>
+    <t>@CalumKerrSNP</t>
+  </si>
+  <si>
+    <t>Richard Baum</t>
+  </si>
+  <si>
+    <t>@DNuttall</t>
+  </si>
+  <si>
+    <t>@BuryNorthLabour</t>
+  </si>
+  <si>
+    <t>@richardbaum</t>
+  </si>
+  <si>
+    <t>@MGreenwoodWW</t>
+  </si>
+  <si>
+    <t>@tony4ww</t>
+  </si>
+  <si>
+    <t>Tony Caldeira</t>
+  </si>
+  <si>
+    <t>Peter Reisdorf</t>
+  </si>
+  <si>
+    <t>@andreajenkyns</t>
+  </si>
+  <si>
+    <t>@morleyneil</t>
+  </si>
+  <si>
+    <t>Neil Dawson</t>
+  </si>
+  <si>
+    <t>@HollyLynch5</t>
+  </si>
+  <si>
+    <t>Chris Pearson</t>
+  </si>
+  <si>
+    <t>@Pearson4Halifax</t>
+  </si>
+  <si>
+    <t>James Baker</t>
+  </si>
+  <si>
+    <t>Mark Weedon</t>
+  </si>
+  <si>
+    <t>@RuthCadbury</t>
+  </si>
+  <si>
+    <t>@MaryMacleodUK</t>
+  </si>
+  <si>
+    <t>Diane Scott</t>
+  </si>
+  <si>
+    <t>@JosephBourke</t>
+  </si>
+  <si>
+    <t>Joseph Bourke</t>
+  </si>
+  <si>
+    <t>@olivercolvile</t>
+  </si>
+  <si>
+    <t>@LukePollard</t>
+  </si>
+  <si>
+    <t>Henrietta Bewley</t>
+  </si>
+  <si>
+    <t>Daniel Michael Sheaff</t>
+  </si>
+  <si>
+    <t>RM18 7QX</t>
+  </si>
+  <si>
+    <t>@John4Thurrock17</t>
+  </si>
+  <si>
+    <t>John Kent</t>
+  </si>
+  <si>
+    <t>@KevinMPMcNamara</t>
+  </si>
+  <si>
+    <t>Kevin McNamara</t>
+  </si>
+  <si>
+    <t>@wesstreeting</t>
+  </si>
+  <si>
+    <t>@DanielZeichner</t>
+  </si>
+  <si>
+    <t>@julianhuppert</t>
+  </si>
+  <si>
+    <t>@DrJohnHayward</t>
+  </si>
+  <si>
+    <t>John Hayward</t>
+  </si>
+  <si>
+    <t>@StuartTuckwood</t>
+  </si>
+  <si>
+    <t>Stuart James Tuckwood</t>
+  </si>
+  <si>
+    <t>@lucyallan</t>
+  </si>
+  <si>
+    <t>@Caroline_Ansell</t>
+  </si>
+  <si>
+    <t>@StephenLloydEBN</t>
+  </si>
+  <si>
+    <t>@JakeyLambert</t>
+  </si>
+  <si>
+    <t>Jake Lambert</t>
+  </si>
+  <si>
+    <t>@simonfell</t>
+  </si>
+  <si>
+    <t>@JWoodcockMP</t>
+  </si>
+  <si>
+    <t>Loraine Birchall</t>
+  </si>
+  <si>
+    <t>@LoraineBirchall</t>
+  </si>
+  <si>
+    <t>@AlanPiper8</t>
+  </si>
+  <si>
+    <t>Alan Piper</t>
+  </si>
+  <si>
+    <t>@CGreenUK</t>
+  </si>
+  <si>
+    <t>@JulieHilling</t>
+  </si>
+  <si>
+    <t>@PaulUppalWSW</t>
+  </si>
+  <si>
+    <t>@eleanor74386209</t>
+  </si>
+  <si>
+    <t>Eleanor Smith</t>
+  </si>
+  <si>
+    <t>Sarah Quarmby</t>
+  </si>
+  <si>
+    <t>@Tony__Cox</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
+    <numFmt numFmtId="167" formatCode="0.00000"/>
+    <numFmt numFmtId="168" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -320,7 +1075,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -363,6 +1118,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -377,7 +1150,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -388,6 +1161,16 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -676,8 +1459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1135,4 +1918,3583 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q116"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" customWidth="1"/>
+    <col min="14" max="14" width="8.5703125" customWidth="1"/>
+    <col min="15" max="15" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.85546875" customWidth="1"/>
+    <col min="17" max="17" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L1" t="s">
+        <v>254</v>
+      </c>
+      <c r="M1" t="s">
+        <v>99</v>
+      </c>
+      <c r="N1" t="s">
+        <v>258</v>
+      </c>
+      <c r="P1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I2">
+        <v>15862</v>
+      </c>
+      <c r="J2" s="11">
+        <v>0.370971514</v>
+      </c>
+      <c r="K2" s="10">
+        <v>5.1012790000000002E-2</v>
+      </c>
+      <c r="L2">
+        <v>27</v>
+      </c>
+      <c r="M2" t="s">
+        <v>101</v>
+      </c>
+      <c r="N2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" t="str">
+        <f>CONCATENATE(D2," ",E2)</f>
+        <v>Byron Davies</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G3" t="s">
+        <v>105</v>
+      </c>
+      <c r="H3" t="s">
+        <v>105</v>
+      </c>
+      <c r="I3">
+        <v>15835</v>
+      </c>
+      <c r="J3" s="11">
+        <v>0.370340053</v>
+      </c>
+      <c r="K3" s="10">
+        <v>-1.4003975E-2</v>
+      </c>
+      <c r="L3">
+        <v>27</v>
+      </c>
+      <c r="M3" t="s">
+        <v>101</v>
+      </c>
+      <c r="N3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" s="13" t="str">
+        <f>CONCATENATE(D3," ",E3)</f>
+        <v>Liz Evans</v>
+      </c>
+      <c r="P3" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J4" s="11"/>
+      <c r="K4" s="10"/>
+      <c r="N4" t="s">
+        <v>196</v>
+      </c>
+      <c r="O4" t="s">
+        <v>264</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J5" s="11"/>
+      <c r="K5" s="10"/>
+      <c r="P5" s="6"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H6" t="s">
+        <v>105</v>
+      </c>
+      <c r="I6">
+        <v>16402</v>
+      </c>
+      <c r="J6" s="11">
+        <v>0.36656609699999998</v>
+      </c>
+      <c r="K6" s="10">
+        <v>4.9729361999999999E-2</v>
+      </c>
+      <c r="L6">
+        <v>41</v>
+      </c>
+      <c r="M6" t="s">
+        <v>101</v>
+      </c>
+      <c r="N6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O6" t="str">
+        <f>CONCATENATE(D6," ",E6)</f>
+        <v>Amanda Solloway</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H7" t="s">
+        <v>115</v>
+      </c>
+      <c r="I7">
+        <v>16361</v>
+      </c>
+      <c r="J7" s="11">
+        <v>0.365649793</v>
+      </c>
+      <c r="K7" s="10">
+        <v>3.5215010999999997E-2</v>
+      </c>
+      <c r="L7">
+        <v>41</v>
+      </c>
+      <c r="M7" t="s">
+        <v>101</v>
+      </c>
+      <c r="N7" t="s">
+        <v>6</v>
+      </c>
+      <c r="O7" t="str">
+        <f>CONCATENATE(D7," ",E7)</f>
+        <v>Chris Williamson</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>110</v>
+      </c>
+      <c r="J8" s="11"/>
+      <c r="K8" s="10"/>
+      <c r="N8" t="s">
+        <v>196</v>
+      </c>
+      <c r="O8" t="s">
+        <v>263</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J9" s="11"/>
+      <c r="K9" s="10"/>
+      <c r="P9" s="6"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" t="s">
+        <v>113</v>
+      </c>
+      <c r="E10" t="s">
+        <v>117</v>
+      </c>
+      <c r="F10" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I10">
+        <v>22118</v>
+      </c>
+      <c r="J10" s="11">
+        <v>0.432321495</v>
+      </c>
+      <c r="K10" s="10">
+        <v>8.1562785999999998E-2</v>
+      </c>
+      <c r="L10">
+        <v>93</v>
+      </c>
+      <c r="M10" t="s">
+        <v>106</v>
+      </c>
+      <c r="N10" t="s">
+        <v>6</v>
+      </c>
+      <c r="O10" t="str">
+        <f>CONCATENATE(D10," ",E10)</f>
+        <v>Chris Matheson</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G11" t="s">
+        <v>115</v>
+      </c>
+      <c r="H11" t="s">
+        <v>115</v>
+      </c>
+      <c r="I11">
+        <v>22025</v>
+      </c>
+      <c r="J11" s="11">
+        <v>0.43050370399999999</v>
+      </c>
+      <c r="K11" s="10">
+        <v>2.4540890999999999E-2</v>
+      </c>
+      <c r="L11">
+        <v>93</v>
+      </c>
+      <c r="M11" t="s">
+        <v>106</v>
+      </c>
+      <c r="N11" t="s">
+        <v>5</v>
+      </c>
+      <c r="O11" s="13" t="str">
+        <f>CONCATENATE(D11," ",E11)</f>
+        <v>Stephen Mosley</v>
+      </c>
+      <c r="P11" s="15"/>
+      <c r="Q11" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>116</v>
+      </c>
+      <c r="J12" s="11"/>
+      <c r="K12" s="10"/>
+      <c r="N12" t="s">
+        <v>196</v>
+      </c>
+      <c r="O12" t="s">
+        <v>269</v>
+      </c>
+      <c r="P12" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J13" s="11"/>
+      <c r="K13" s="10"/>
+      <c r="P13" s="6"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" t="s">
+        <v>120</v>
+      </c>
+      <c r="E14" t="s">
+        <v>121</v>
+      </c>
+      <c r="F14" t="s">
+        <v>104</v>
+      </c>
+      <c r="G14" t="s">
+        <v>115</v>
+      </c>
+      <c r="H14" t="s">
+        <v>115</v>
+      </c>
+      <c r="I14">
+        <v>22753</v>
+      </c>
+      <c r="J14" s="11">
+        <v>0.42978032100000002</v>
+      </c>
+      <c r="K14" s="10">
+        <v>3.5816523000000003E-2</v>
+      </c>
+      <c r="L14">
+        <v>165</v>
+      </c>
+      <c r="M14" t="s">
+        <v>101</v>
+      </c>
+      <c r="N14" t="s">
+        <v>5</v>
+      </c>
+      <c r="O14" t="str">
+        <f t="shared" ref="O14:O116" si="0">CONCATENATE(D14," ",E14)</f>
+        <v>Gavin Barwell</v>
+      </c>
+      <c r="P14" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E15" t="s">
+        <v>123</v>
+      </c>
+      <c r="F15" t="s">
+        <v>109</v>
+      </c>
+      <c r="G15" t="s">
+        <v>105</v>
+      </c>
+      <c r="H15" t="s">
+        <v>105</v>
+      </c>
+      <c r="I15">
+        <v>22588</v>
+      </c>
+      <c r="J15" s="11">
+        <v>0.42666364400000001</v>
+      </c>
+      <c r="K15" s="10">
+        <v>9.0665898999999994E-2</v>
+      </c>
+      <c r="L15">
+        <v>165</v>
+      </c>
+      <c r="M15" t="s">
+        <v>101</v>
+      </c>
+      <c r="N15" t="s">
+        <v>6</v>
+      </c>
+      <c r="O15" t="str">
+        <f t="shared" si="0"/>
+        <v>Sarah Jones</v>
+      </c>
+      <c r="P15" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="11"/>
+      <c r="K16" s="10"/>
+      <c r="N16" t="s">
+        <v>196</v>
+      </c>
+      <c r="O16" t="s">
+        <v>32</v>
+      </c>
+      <c r="P16" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" s="11"/>
+      <c r="K17" s="10"/>
+      <c r="N17" t="s">
+        <v>2</v>
+      </c>
+      <c r="O17" t="s">
+        <v>33</v>
+      </c>
+      <c r="P17" s="13"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" s="11"/>
+      <c r="K18" s="10"/>
+      <c r="N18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" t="s">
+        <v>34</v>
+      </c>
+      <c r="P18" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J19" s="11"/>
+      <c r="K19" s="10"/>
+      <c r="P19" s="6"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" t="s">
+        <v>106</v>
+      </c>
+      <c r="D20" t="s">
+        <v>125</v>
+      </c>
+      <c r="E20" t="s">
+        <v>126</v>
+      </c>
+      <c r="F20" t="s">
+        <v>104</v>
+      </c>
+      <c r="G20" t="s">
+        <v>115</v>
+      </c>
+      <c r="H20" t="s">
+        <v>115</v>
+      </c>
+      <c r="I20">
+        <v>10871</v>
+      </c>
+      <c r="J20" s="11">
+        <v>0.31125808900000002</v>
+      </c>
+      <c r="K20" s="10">
+        <v>-2.2326861E-2</v>
+      </c>
+      <c r="L20">
+        <v>229</v>
+      </c>
+      <c r="M20" t="s">
+        <v>106</v>
+      </c>
+      <c r="N20" t="s">
+        <v>6</v>
+      </c>
+      <c r="O20" t="str">
+        <f t="shared" si="0"/>
+        <v>Albert Owen</v>
+      </c>
+      <c r="P20" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>124</v>
+      </c>
+      <c r="C21" t="s">
+        <v>127</v>
+      </c>
+      <c r="D21" t="s">
+        <v>129</v>
+      </c>
+      <c r="E21" t="s">
+        <v>130</v>
+      </c>
+      <c r="F21" t="s">
+        <v>104</v>
+      </c>
+      <c r="G21" t="s">
+        <v>105</v>
+      </c>
+      <c r="H21" t="s">
+        <v>105</v>
+      </c>
+      <c r="I21">
+        <v>10642</v>
+      </c>
+      <c r="J21" s="11">
+        <v>0.304701369</v>
+      </c>
+      <c r="K21" s="10">
+        <v>4.2565727999999997E-2</v>
+      </c>
+      <c r="L21">
+        <v>229</v>
+      </c>
+      <c r="M21" t="s">
+        <v>106</v>
+      </c>
+      <c r="N21" t="s">
+        <v>128</v>
+      </c>
+      <c r="O21" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>John Rowlands</v>
+      </c>
+      <c r="P21" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J22" s="11"/>
+      <c r="K22" s="10"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s">
+        <v>131</v>
+      </c>
+      <c r="C23" t="s">
+        <v>101</v>
+      </c>
+      <c r="D23" t="s">
+        <v>132</v>
+      </c>
+      <c r="E23" t="s">
+        <v>103</v>
+      </c>
+      <c r="F23" t="s">
+        <v>104</v>
+      </c>
+      <c r="G23" t="s">
+        <v>105</v>
+      </c>
+      <c r="H23" t="s">
+        <v>105</v>
+      </c>
+      <c r="I23">
+        <v>13760</v>
+      </c>
+      <c r="J23" s="11">
+        <v>0.390232835</v>
+      </c>
+      <c r="K23" s="10">
+        <v>3.8231935000000002E-2</v>
+      </c>
+      <c r="L23">
+        <v>237</v>
+      </c>
+      <c r="M23" t="s">
+        <v>101</v>
+      </c>
+      <c r="N23" t="s">
+        <v>5</v>
+      </c>
+      <c r="O23" t="str">
+        <f t="shared" si="0"/>
+        <v>James Davies</v>
+      </c>
+      <c r="P23" s="6" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>131</v>
+      </c>
+      <c r="C24" t="s">
+        <v>106</v>
+      </c>
+      <c r="D24" t="s">
+        <v>113</v>
+      </c>
+      <c r="E24" t="s">
+        <v>133</v>
+      </c>
+      <c r="F24" t="s">
+        <v>104</v>
+      </c>
+      <c r="G24" t="s">
+        <v>115</v>
+      </c>
+      <c r="H24" t="s">
+        <v>115</v>
+      </c>
+      <c r="I24">
+        <v>13523</v>
+      </c>
+      <c r="J24" s="11">
+        <v>0.38351152799999999</v>
+      </c>
+      <c r="K24" s="10">
+        <v>-3.9097804E-2</v>
+      </c>
+      <c r="L24">
+        <v>237</v>
+      </c>
+      <c r="M24" t="s">
+        <v>101</v>
+      </c>
+      <c r="N24" t="s">
+        <v>6</v>
+      </c>
+      <c r="O24" t="str">
+        <f t="shared" si="0"/>
+        <v>Chris Ruane</v>
+      </c>
+      <c r="P24" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>131</v>
+      </c>
+      <c r="J25" s="11"/>
+      <c r="K25" s="10"/>
+      <c r="N25" t="s">
+        <v>196</v>
+      </c>
+      <c r="O25" t="s">
+        <v>276</v>
+      </c>
+      <c r="P25" s="6" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>131</v>
+      </c>
+      <c r="J26" s="11"/>
+      <c r="K26" s="10"/>
+      <c r="N26" t="s">
+        <v>128</v>
+      </c>
+      <c r="O26" t="s">
+        <v>277</v>
+      </c>
+      <c r="P26" s="13"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J27" s="11"/>
+      <c r="K27" s="10"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
+        <v>134</v>
+      </c>
+      <c r="C28" t="s">
+        <v>106</v>
+      </c>
+      <c r="D28" t="s">
+        <v>135</v>
+      </c>
+      <c r="E28" t="s">
+        <v>136</v>
+      </c>
+      <c r="F28" t="s">
+        <v>109</v>
+      </c>
+      <c r="G28" t="s">
+        <v>105</v>
+      </c>
+      <c r="H28" t="s">
+        <v>105</v>
+      </c>
+      <c r="I28">
+        <v>22002</v>
+      </c>
+      <c r="J28" s="11">
+        <v>0.43231029199999998</v>
+      </c>
+      <c r="K28" s="10">
+        <v>0.130869614</v>
+      </c>
+      <c r="L28">
+        <v>274</v>
+      </c>
+      <c r="M28" t="s">
+        <v>106</v>
+      </c>
+      <c r="N28" t="s">
+        <v>6</v>
+      </c>
+      <c r="O28" t="str">
+        <f t="shared" si="0"/>
+        <v>Rupa Huq</v>
+      </c>
+      <c r="P28" s="6" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>134</v>
+      </c>
+      <c r="C29" t="s">
+        <v>101</v>
+      </c>
+      <c r="D29" t="s">
+        <v>137</v>
+      </c>
+      <c r="E29" t="s">
+        <v>138</v>
+      </c>
+      <c r="F29" t="s">
+        <v>109</v>
+      </c>
+      <c r="G29" t="s">
+        <v>115</v>
+      </c>
+      <c r="H29" t="s">
+        <v>115</v>
+      </c>
+      <c r="I29">
+        <v>21728</v>
+      </c>
+      <c r="J29" s="11">
+        <v>0.42692655299999999</v>
+      </c>
+      <c r="K29" s="10">
+        <v>4.6757062000000002E-2</v>
+      </c>
+      <c r="L29">
+        <v>274</v>
+      </c>
+      <c r="M29" t="s">
+        <v>106</v>
+      </c>
+      <c r="N29" t="s">
+        <v>5</v>
+      </c>
+      <c r="O29" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>Angie Bray</v>
+      </c>
+      <c r="P29" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q29" s="6" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>134</v>
+      </c>
+      <c r="J30" s="11"/>
+      <c r="K30" s="10"/>
+      <c r="N30" t="s">
+        <v>196</v>
+      </c>
+      <c r="O30" t="s">
+        <v>281</v>
+      </c>
+      <c r="P30" s="6" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J31" s="11"/>
+      <c r="K31" s="10"/>
+      <c r="O31" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>8</v>
+      </c>
+      <c r="B32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
+        <v>139</v>
+      </c>
+      <c r="D32" t="s">
+        <v>140</v>
+      </c>
+      <c r="E32" t="s">
+        <v>141</v>
+      </c>
+      <c r="F32" t="s">
+        <v>104</v>
+      </c>
+      <c r="G32" t="s">
+        <v>105</v>
+      </c>
+      <c r="H32" t="s">
+        <v>105</v>
+      </c>
+      <c r="I32">
+        <v>20145</v>
+      </c>
+      <c r="J32" s="11">
+        <v>0.36601984100000001</v>
+      </c>
+      <c r="K32" s="10">
+        <v>0.27427054499999998</v>
+      </c>
+      <c r="L32">
+        <v>328</v>
+      </c>
+      <c r="M32" t="s">
+        <v>139</v>
+      </c>
+      <c r="N32" t="s">
+        <v>1</v>
+      </c>
+      <c r="O32" t="str">
+        <f t="shared" si="0"/>
+        <v>Calum Kerr</v>
+      </c>
+      <c r="P32" s="6" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>101</v>
+      </c>
+      <c r="D33" t="s">
+        <v>129</v>
+      </c>
+      <c r="E33" t="s">
+        <v>142</v>
+      </c>
+      <c r="F33" t="s">
+        <v>104</v>
+      </c>
+      <c r="G33" t="s">
+        <v>105</v>
+      </c>
+      <c r="H33" t="s">
+        <v>105</v>
+      </c>
+      <c r="I33">
+        <v>19817</v>
+      </c>
+      <c r="J33" s="11">
+        <v>0.36006032199999999</v>
+      </c>
+      <c r="K33" s="10">
+        <v>2.2299682000000001E-2</v>
+      </c>
+      <c r="L33">
+        <v>328</v>
+      </c>
+      <c r="M33" t="s">
+        <v>139</v>
+      </c>
+      <c r="N33" t="s">
+        <v>5</v>
+      </c>
+      <c r="O33" t="str">
+        <f t="shared" si="0"/>
+        <v>John Lamont</v>
+      </c>
+      <c r="P33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>4</v>
+      </c>
+      <c r="J34" s="11"/>
+      <c r="K34" s="10"/>
+      <c r="N34" t="s">
+        <v>6</v>
+      </c>
+      <c r="O34" t="s">
+        <v>8</v>
+      </c>
+      <c r="P34" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J35" s="11"/>
+      <c r="K35" s="10"/>
+      <c r="O35" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>9</v>
+      </c>
+      <c r="B36" t="s">
+        <v>143</v>
+      </c>
+      <c r="C36" t="s">
+        <v>101</v>
+      </c>
+      <c r="D36" t="s">
+        <v>144</v>
+      </c>
+      <c r="E36" t="s">
+        <v>145</v>
+      </c>
+      <c r="F36" t="s">
+        <v>104</v>
+      </c>
+      <c r="G36" t="s">
+        <v>115</v>
+      </c>
+      <c r="H36" t="s">
+        <v>115</v>
+      </c>
+      <c r="I36">
+        <v>18970</v>
+      </c>
+      <c r="J36" s="11">
+        <v>0.41941189499999998</v>
+      </c>
+      <c r="K36" s="10">
+        <v>1.7508023000000001E-2</v>
+      </c>
+      <c r="L36">
+        <v>378</v>
+      </c>
+      <c r="M36" t="s">
+        <v>101</v>
+      </c>
+      <c r="N36" t="s">
+        <v>5</v>
+      </c>
+      <c r="O36" t="str">
+        <f t="shared" si="0"/>
+        <v>David Nuttall</v>
+      </c>
+      <c r="P36" s="6" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>143</v>
+      </c>
+      <c r="C37" t="s">
+        <v>106</v>
+      </c>
+      <c r="D37" t="s">
+        <v>132</v>
+      </c>
+      <c r="E37" t="s">
+        <v>146</v>
+      </c>
+      <c r="F37" t="s">
+        <v>104</v>
+      </c>
+      <c r="G37" t="s">
+        <v>105</v>
+      </c>
+      <c r="H37" t="s">
+        <v>105</v>
+      </c>
+      <c r="I37">
+        <v>18592</v>
+      </c>
+      <c r="J37" s="11">
+        <v>0.41105460999999999</v>
+      </c>
+      <c r="K37" s="10">
+        <v>5.9038418000000002E-2</v>
+      </c>
+      <c r="L37">
+        <v>378</v>
+      </c>
+      <c r="M37" t="s">
+        <v>101</v>
+      </c>
+      <c r="N37" t="s">
+        <v>6</v>
+      </c>
+      <c r="O37" t="str">
+        <f t="shared" si="0"/>
+        <v>James Frith</v>
+      </c>
+      <c r="P37" s="6" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>143</v>
+      </c>
+      <c r="J38" s="11"/>
+      <c r="K38" s="10"/>
+      <c r="N38" t="s">
+        <v>196</v>
+      </c>
+      <c r="O38" t="s">
+        <v>284</v>
+      </c>
+      <c r="P38" s="6" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J39" s="11"/>
+      <c r="K39" s="10"/>
+      <c r="O39" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>10</v>
+      </c>
+      <c r="B40" t="s">
+        <v>147</v>
+      </c>
+      <c r="C40" t="s">
+        <v>106</v>
+      </c>
+      <c r="D40" t="s">
+        <v>148</v>
+      </c>
+      <c r="E40" t="s">
+        <v>149</v>
+      </c>
+      <c r="F40" t="s">
+        <v>109</v>
+      </c>
+      <c r="G40" t="s">
+        <v>105</v>
+      </c>
+      <c r="H40" t="s">
+        <v>105</v>
+      </c>
+      <c r="I40">
+        <v>18898</v>
+      </c>
+      <c r="J40" s="11">
+        <v>0.45147880899999998</v>
+      </c>
+      <c r="K40" s="10">
+        <v>8.8530521000000001E-2</v>
+      </c>
+      <c r="L40">
+        <v>417</v>
+      </c>
+      <c r="M40" t="s">
+        <v>106</v>
+      </c>
+      <c r="N40" t="s">
+        <v>6</v>
+      </c>
+      <c r="O40" t="str">
+        <f t="shared" si="0"/>
+        <v>Margaret Greenwood</v>
+      </c>
+      <c r="P40" s="6" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>147</v>
+      </c>
+      <c r="C41" t="s">
+        <v>101</v>
+      </c>
+      <c r="D41" t="s">
+        <v>150</v>
+      </c>
+      <c r="E41" t="s">
+        <v>151</v>
+      </c>
+      <c r="F41" t="s">
+        <v>109</v>
+      </c>
+      <c r="G41" t="s">
+        <v>115</v>
+      </c>
+      <c r="H41" t="s">
+        <v>115</v>
+      </c>
+      <c r="I41">
+        <v>18481</v>
+      </c>
+      <c r="J41" s="11">
+        <v>0.441516556</v>
+      </c>
+      <c r="K41" s="10">
+        <v>1.6696887000000001E-2</v>
+      </c>
+      <c r="L41">
+        <v>417</v>
+      </c>
+      <c r="M41" t="s">
+        <v>106</v>
+      </c>
+      <c r="N41" t="s">
+        <v>5</v>
+      </c>
+      <c r="O41" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>Esther McVey</v>
+      </c>
+      <c r="P41" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>147</v>
+      </c>
+      <c r="J42" s="11"/>
+      <c r="K42" s="10"/>
+      <c r="N42" t="s">
+        <v>196</v>
+      </c>
+      <c r="O42" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="P42" s="6"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J43" s="11"/>
+      <c r="K43" s="10"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>11</v>
+      </c>
+      <c r="B44" t="s">
+        <v>152</v>
+      </c>
+      <c r="C44" t="s">
+        <v>101</v>
+      </c>
+      <c r="D44" t="s">
+        <v>153</v>
+      </c>
+      <c r="E44" t="s">
+        <v>154</v>
+      </c>
+      <c r="F44" t="s">
+        <v>109</v>
+      </c>
+      <c r="G44" t="s">
+        <v>105</v>
+      </c>
+      <c r="H44" t="s">
+        <v>105</v>
+      </c>
+      <c r="I44">
+        <v>18776</v>
+      </c>
+      <c r="J44" s="11">
+        <v>0.38913989599999999</v>
+      </c>
+      <c r="K44" s="10">
+        <v>3.5774905000000003E-2</v>
+      </c>
+      <c r="L44">
+        <v>422</v>
+      </c>
+      <c r="M44" t="s">
+        <v>101</v>
+      </c>
+      <c r="N44" t="s">
+        <v>5</v>
+      </c>
+      <c r="O44" t="str">
+        <f t="shared" si="0"/>
+        <v>Andrea Jenkyns</v>
+      </c>
+      <c r="P44" s="6" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>152</v>
+      </c>
+      <c r="C45" t="s">
+        <v>155</v>
+      </c>
+      <c r="D45" t="s">
+        <v>156</v>
+      </c>
+      <c r="E45" t="s">
+        <v>157</v>
+      </c>
+      <c r="F45" t="s">
+        <v>104</v>
+      </c>
+      <c r="G45" t="s">
+        <v>115</v>
+      </c>
+      <c r="H45" t="s">
+        <v>115</v>
+      </c>
+      <c r="I45">
+        <v>18354</v>
+      </c>
+      <c r="J45" s="11">
+        <v>0.38039378200000001</v>
+      </c>
+      <c r="K45" s="10">
+        <v>4.4931770000000001E-3</v>
+      </c>
+      <c r="L45">
+        <v>422</v>
+      </c>
+      <c r="M45" t="s">
+        <v>101</v>
+      </c>
+      <c r="N45" t="s">
+        <v>6</v>
+      </c>
+      <c r="O45" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>Ed Balls</v>
+      </c>
+      <c r="P45" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J46" s="11"/>
+      <c r="K46" s="10"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>12</v>
+      </c>
+      <c r="B47" t="s">
+        <v>158</v>
+      </c>
+      <c r="C47" t="s">
+        <v>106</v>
+      </c>
+      <c r="D47" t="s">
+        <v>159</v>
+      </c>
+      <c r="E47" t="s">
+        <v>160</v>
+      </c>
+      <c r="F47" t="s">
+        <v>109</v>
+      </c>
+      <c r="G47" t="s">
+        <v>105</v>
+      </c>
+      <c r="H47" t="s">
+        <v>105</v>
+      </c>
+      <c r="I47">
+        <v>17506</v>
+      </c>
+      <c r="J47" s="11">
+        <v>0.40010970699999998</v>
+      </c>
+      <c r="K47" s="10">
+        <v>2.6375348E-2</v>
+      </c>
+      <c r="L47">
+        <v>428</v>
+      </c>
+      <c r="M47" t="s">
+        <v>106</v>
+      </c>
+      <c r="N47" t="s">
+        <v>6</v>
+      </c>
+      <c r="O47" t="str">
+        <f t="shared" si="0"/>
+        <v>Holly Lynch</v>
+      </c>
+      <c r="P47" s="6" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>158</v>
+      </c>
+      <c r="C48" t="s">
+        <v>101</v>
+      </c>
+      <c r="D48" t="s">
+        <v>161</v>
+      </c>
+      <c r="E48" t="s">
+        <v>162</v>
+      </c>
+      <c r="F48" t="s">
+        <v>104</v>
+      </c>
+      <c r="G48" t="s">
+        <v>105</v>
+      </c>
+      <c r="H48" t="s">
+        <v>105</v>
+      </c>
+      <c r="I48">
+        <v>17078</v>
+      </c>
+      <c r="J48" s="11">
+        <v>0.39032751999999998</v>
+      </c>
+      <c r="K48" s="10">
+        <v>5.0389510999999998E-2</v>
+      </c>
+      <c r="L48">
+        <v>428</v>
+      </c>
+      <c r="M48" t="s">
+        <v>106</v>
+      </c>
+      <c r="N48" t="s">
+        <v>5</v>
+      </c>
+      <c r="O48" t="str">
+        <f t="shared" si="0"/>
+        <v>Philip Allott</v>
+      </c>
+      <c r="P48" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>158</v>
+      </c>
+      <c r="J49" s="11"/>
+      <c r="K49" s="10"/>
+      <c r="N49" t="s">
+        <v>196</v>
+      </c>
+      <c r="O49" t="s">
+        <v>298</v>
+      </c>
+      <c r="P49" s="13"/>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>158</v>
+      </c>
+      <c r="J50" s="11"/>
+      <c r="K50" s="10"/>
+      <c r="N50" t="s">
+        <v>3</v>
+      </c>
+      <c r="O50" t="s">
+        <v>299</v>
+      </c>
+      <c r="P50" s="13"/>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J51" s="11"/>
+      <c r="K51" s="10"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>13</v>
+      </c>
+      <c r="B52" t="s">
+        <v>163</v>
+      </c>
+      <c r="C52" t="s">
+        <v>106</v>
+      </c>
+      <c r="D52" t="s">
+        <v>164</v>
+      </c>
+      <c r="E52" t="s">
+        <v>165</v>
+      </c>
+      <c r="F52" t="s">
+        <v>109</v>
+      </c>
+      <c r="G52" t="s">
+        <v>105</v>
+      </c>
+      <c r="H52" t="s">
+        <v>105</v>
+      </c>
+      <c r="I52">
+        <v>25096</v>
+      </c>
+      <c r="J52" s="11">
+        <v>0.43755557499999997</v>
+      </c>
+      <c r="K52" s="10">
+        <v>0.101574918</v>
+      </c>
+      <c r="L52">
+        <v>465</v>
+      </c>
+      <c r="M52" t="s">
+        <v>106</v>
+      </c>
+      <c r="N52" t="s">
+        <v>6</v>
+      </c>
+      <c r="O52" t="str">
+        <f t="shared" si="0"/>
+        <v>Ruth Cadbury</v>
+      </c>
+      <c r="P52" s="6" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>163</v>
+      </c>
+      <c r="C53" t="s">
+        <v>101</v>
+      </c>
+      <c r="D53" t="s">
+        <v>166</v>
+      </c>
+      <c r="E53" t="s">
+        <v>167</v>
+      </c>
+      <c r="F53" t="s">
+        <v>109</v>
+      </c>
+      <c r="G53" t="s">
+        <v>115</v>
+      </c>
+      <c r="H53" t="s">
+        <v>115</v>
+      </c>
+      <c r="I53">
+        <v>24631</v>
+      </c>
+      <c r="J53" s="11">
+        <v>0.42944817400000002</v>
+      </c>
+      <c r="K53" s="10">
+        <v>5.7049772999999998E-2</v>
+      </c>
+      <c r="L53">
+        <v>465</v>
+      </c>
+      <c r="M53" t="s">
+        <v>106</v>
+      </c>
+      <c r="N53" t="s">
+        <v>5</v>
+      </c>
+      <c r="O53" t="str">
+        <f t="shared" si="0"/>
+        <v>Mary MacLeod</v>
+      </c>
+      <c r="P53" s="6" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>163</v>
+      </c>
+      <c r="J54" s="11"/>
+      <c r="K54" s="10"/>
+      <c r="N54" t="s">
+        <v>196</v>
+      </c>
+      <c r="O54" t="s">
+        <v>304</v>
+      </c>
+      <c r="P54" s="6" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>163</v>
+      </c>
+      <c r="J55" s="11"/>
+      <c r="K55" s="10"/>
+      <c r="N55" t="s">
+        <v>2</v>
+      </c>
+      <c r="O55" t="s">
+        <v>302</v>
+      </c>
+      <c r="P55" s="6"/>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J56" s="11"/>
+      <c r="K56" s="10"/>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>14</v>
+      </c>
+      <c r="B57" t="s">
+        <v>168</v>
+      </c>
+      <c r="C57" t="s">
+        <v>101</v>
+      </c>
+      <c r="D57" t="s">
+        <v>169</v>
+      </c>
+      <c r="E57" t="s">
+        <v>170</v>
+      </c>
+      <c r="F57" t="s">
+        <v>104</v>
+      </c>
+      <c r="G57" t="s">
+        <v>115</v>
+      </c>
+      <c r="H57" t="s">
+        <v>115</v>
+      </c>
+      <c r="I57">
+        <v>18120</v>
+      </c>
+      <c r="J57" s="11">
+        <v>0.37779121399999999</v>
+      </c>
+      <c r="K57" s="10">
+        <v>3.4919750999999999E-2</v>
+      </c>
+      <c r="L57">
+        <v>523</v>
+      </c>
+      <c r="M57" t="s">
+        <v>101</v>
+      </c>
+      <c r="N57" t="s">
+        <v>5</v>
+      </c>
+      <c r="O57" t="str">
+        <f t="shared" si="0"/>
+        <v>Oliver Colvile</v>
+      </c>
+      <c r="P57" s="6" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>168</v>
+      </c>
+      <c r="C58" t="s">
+        <v>155</v>
+      </c>
+      <c r="D58" t="s">
+        <v>171</v>
+      </c>
+      <c r="E58" t="s">
+        <v>172</v>
+      </c>
+      <c r="F58" t="s">
+        <v>104</v>
+      </c>
+      <c r="G58" t="s">
+        <v>105</v>
+      </c>
+      <c r="H58" t="s">
+        <v>105</v>
+      </c>
+      <c r="I58">
+        <v>17597</v>
+      </c>
+      <c r="J58" s="11">
+        <v>0.366886975</v>
+      </c>
+      <c r="K58" s="10">
+        <v>5.0192211E-2</v>
+      </c>
+      <c r="L58">
+        <v>523</v>
+      </c>
+      <c r="M58" t="s">
+        <v>101</v>
+      </c>
+      <c r="N58" t="s">
+        <v>6</v>
+      </c>
+      <c r="O58" t="str">
+        <f t="shared" si="0"/>
+        <v>Luke Pollard</v>
+      </c>
+      <c r="P58" s="6" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>168</v>
+      </c>
+      <c r="J59" s="11"/>
+      <c r="K59" s="10"/>
+      <c r="N59" t="s">
+        <v>196</v>
+      </c>
+      <c r="O59" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>168</v>
+      </c>
+      <c r="J60" s="11"/>
+      <c r="K60" s="10"/>
+      <c r="N60" t="s">
+        <v>2</v>
+      </c>
+      <c r="O60" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J61" s="11"/>
+      <c r="K61" s="10"/>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>15</v>
+      </c>
+      <c r="B62" t="s">
+        <v>173</v>
+      </c>
+      <c r="C62" t="s">
+        <v>174</v>
+      </c>
+      <c r="D62" t="s">
+        <v>176</v>
+      </c>
+      <c r="E62" t="s">
+        <v>177</v>
+      </c>
+      <c r="F62" t="s">
+        <v>104</v>
+      </c>
+      <c r="G62" t="s">
+        <v>105</v>
+      </c>
+      <c r="H62" t="s">
+        <v>105</v>
+      </c>
+      <c r="I62">
+        <v>23608</v>
+      </c>
+      <c r="J62" s="11">
+        <v>0.46413966699999998</v>
+      </c>
+      <c r="K62" s="10"/>
+      <c r="L62">
+        <v>530</v>
+      </c>
+      <c r="M62" t="s">
+        <v>174</v>
+      </c>
+      <c r="N62" t="s">
+        <v>175</v>
+      </c>
+      <c r="O62" t="str">
+        <f t="shared" si="0"/>
+        <v>Tom Elliott</v>
+      </c>
+      <c r="P62" s="13"/>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>173</v>
+      </c>
+      <c r="C63" t="s">
+        <v>178</v>
+      </c>
+      <c r="D63" t="s">
+        <v>180</v>
+      </c>
+      <c r="E63" t="s">
+        <v>181</v>
+      </c>
+      <c r="F63" t="s">
+        <v>109</v>
+      </c>
+      <c r="G63" t="s">
+        <v>115</v>
+      </c>
+      <c r="H63" t="s">
+        <v>115</v>
+      </c>
+      <c r="I63">
+        <v>23078</v>
+      </c>
+      <c r="J63" s="11">
+        <v>0.45371972300000002</v>
+      </c>
+      <c r="K63" s="10">
+        <v>-1.4647740000000001E-3</v>
+      </c>
+      <c r="L63">
+        <v>530</v>
+      </c>
+      <c r="M63" t="s">
+        <v>174</v>
+      </c>
+      <c r="N63" t="s">
+        <v>179</v>
+      </c>
+      <c r="O63" t="str">
+        <f t="shared" si="0"/>
+        <v>Michelle Gildernew</v>
+      </c>
+      <c r="P63" s="13"/>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J64" s="11"/>
+      <c r="K64" s="10"/>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>16</v>
+      </c>
+      <c r="B65" t="s">
+        <v>182</v>
+      </c>
+      <c r="C65" t="s">
+        <v>101</v>
+      </c>
+      <c r="D65" t="s">
+        <v>183</v>
+      </c>
+      <c r="E65" t="s">
+        <v>184</v>
+      </c>
+      <c r="F65" t="s">
+        <v>109</v>
+      </c>
+      <c r="G65" t="s">
+        <v>115</v>
+      </c>
+      <c r="H65" t="s">
+        <v>115</v>
+      </c>
+      <c r="I65">
+        <v>16692</v>
+      </c>
+      <c r="J65" s="11">
+        <v>0.33677669300000002</v>
+      </c>
+      <c r="K65" s="10">
+        <v>-3.1373282000000002E-2</v>
+      </c>
+      <c r="L65">
+        <v>536</v>
+      </c>
+      <c r="M65" t="s">
+        <v>101</v>
+      </c>
+      <c r="N65" t="s">
+        <v>5</v>
+      </c>
+      <c r="O65" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>Jackie Doyle-Price</v>
+      </c>
+      <c r="P65" s="16" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>182</v>
+      </c>
+      <c r="C66" t="s">
+        <v>106</v>
+      </c>
+      <c r="D66" t="s">
+        <v>185</v>
+      </c>
+      <c r="E66" t="s">
+        <v>186</v>
+      </c>
+      <c r="F66" t="s">
+        <v>109</v>
+      </c>
+      <c r="G66" t="s">
+        <v>105</v>
+      </c>
+      <c r="H66" t="s">
+        <v>105</v>
+      </c>
+      <c r="I66">
+        <v>16156</v>
+      </c>
+      <c r="J66" s="11">
+        <v>0.32596239199999999</v>
+      </c>
+      <c r="K66" s="10">
+        <v>-4.0179769999999997E-2</v>
+      </c>
+      <c r="L66">
+        <v>536</v>
+      </c>
+      <c r="M66" t="s">
+        <v>101</v>
+      </c>
+      <c r="N66" t="s">
+        <v>6</v>
+      </c>
+      <c r="O66" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>Polly Billington</v>
+      </c>
+      <c r="P66" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>182</v>
+      </c>
+      <c r="J67" s="11"/>
+      <c r="K67" s="10"/>
+      <c r="O67" t="s">
+        <v>313</v>
+      </c>
+      <c r="P67" s="6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J68" s="11"/>
+      <c r="K68" s="10"/>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>17</v>
+      </c>
+      <c r="B69" t="s">
+        <v>187</v>
+      </c>
+      <c r="C69" t="s">
+        <v>106</v>
+      </c>
+      <c r="D69" t="s">
+        <v>188</v>
+      </c>
+      <c r="E69" t="s">
+        <v>189</v>
+      </c>
+      <c r="F69" t="s">
+        <v>104</v>
+      </c>
+      <c r="G69" t="s">
+        <v>105</v>
+      </c>
+      <c r="H69" t="s">
+        <v>105</v>
+      </c>
+      <c r="I69">
+        <v>21463</v>
+      </c>
+      <c r="J69" s="11">
+        <v>0.43862911799999998</v>
+      </c>
+      <c r="K69" s="10">
+        <v>9.6164529999999998E-2</v>
+      </c>
+      <c r="L69">
+        <v>589</v>
+      </c>
+      <c r="M69" t="s">
+        <v>106</v>
+      </c>
+      <c r="N69" t="s">
+        <v>6</v>
+      </c>
+      <c r="O69" t="str">
+        <f t="shared" si="0"/>
+        <v>Wes Streeting</v>
+      </c>
+      <c r="P69" s="6" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>187</v>
+      </c>
+      <c r="C70" t="s">
+        <v>101</v>
+      </c>
+      <c r="D70" t="s">
+        <v>190</v>
+      </c>
+      <c r="E70" t="s">
+        <v>191</v>
+      </c>
+      <c r="F70" t="s">
+        <v>104</v>
+      </c>
+      <c r="G70" t="s">
+        <v>115</v>
+      </c>
+      <c r="H70" t="s">
+        <v>115</v>
+      </c>
+      <c r="I70">
+        <v>20874</v>
+      </c>
+      <c r="J70" s="11">
+        <v>0.426592005</v>
+      </c>
+      <c r="K70" s="10">
+        <v>-3.0807289000000002E-2</v>
+      </c>
+      <c r="L70">
+        <v>589</v>
+      </c>
+      <c r="M70" t="s">
+        <v>106</v>
+      </c>
+      <c r="N70" t="s">
+        <v>5</v>
+      </c>
+      <c r="O70" t="str">
+        <f t="shared" si="0"/>
+        <v>Lee Scott</v>
+      </c>
+      <c r="P70" s="13"/>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J71" s="11"/>
+      <c r="K71" s="10"/>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>18</v>
+      </c>
+      <c r="B72" t="s">
+        <v>192</v>
+      </c>
+      <c r="C72" t="s">
+        <v>106</v>
+      </c>
+      <c r="D72" t="s">
+        <v>193</v>
+      </c>
+      <c r="E72" t="s">
+        <v>194</v>
+      </c>
+      <c r="F72" t="s">
+        <v>104</v>
+      </c>
+      <c r="G72" t="s">
+        <v>105</v>
+      </c>
+      <c r="H72" t="s">
+        <v>105</v>
+      </c>
+      <c r="I72">
+        <v>18646</v>
+      </c>
+      <c r="J72" s="11">
+        <v>0.36014215599999999</v>
+      </c>
+      <c r="K72" s="10">
+        <v>0.117293563</v>
+      </c>
+      <c r="L72">
+        <v>599</v>
+      </c>
+      <c r="M72" t="s">
+        <v>106</v>
+      </c>
+      <c r="N72" t="s">
+        <v>6</v>
+      </c>
+      <c r="O72" t="str">
+        <f t="shared" si="0"/>
+        <v>Daniel Zeichner</v>
+      </c>
+      <c r="P72" s="6" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>192</v>
+      </c>
+      <c r="C73" t="s">
+        <v>195</v>
+      </c>
+      <c r="D73" t="s">
+        <v>197</v>
+      </c>
+      <c r="E73" t="s">
+        <v>198</v>
+      </c>
+      <c r="F73" t="s">
+        <v>104</v>
+      </c>
+      <c r="G73" t="s">
+        <v>115</v>
+      </c>
+      <c r="H73" t="s">
+        <v>115</v>
+      </c>
+      <c r="I73">
+        <v>18047</v>
+      </c>
+      <c r="J73" s="11">
+        <v>0.34857264300000002</v>
+      </c>
+      <c r="K73" s="10">
+        <v>-4.2829710999999999E-2</v>
+      </c>
+      <c r="L73">
+        <v>599</v>
+      </c>
+      <c r="M73" t="s">
+        <v>106</v>
+      </c>
+      <c r="N73" t="s">
+        <v>196</v>
+      </c>
+      <c r="O73" t="str">
+        <f t="shared" si="0"/>
+        <v>Julian Huppert</v>
+      </c>
+      <c r="P73" s="6" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>192</v>
+      </c>
+      <c r="J74" s="11"/>
+      <c r="K74" s="10"/>
+      <c r="N74" t="s">
+        <v>5</v>
+      </c>
+      <c r="O74" t="s">
+        <v>318</v>
+      </c>
+      <c r="P74" s="6" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>192</v>
+      </c>
+      <c r="J75" s="11"/>
+      <c r="K75" s="10"/>
+      <c r="N75" t="s">
+        <v>2</v>
+      </c>
+      <c r="O75" t="s">
+        <v>320</v>
+      </c>
+      <c r="P75" s="6" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J76" s="11"/>
+      <c r="K76" s="10"/>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>19</v>
+      </c>
+      <c r="B77" t="s">
+        <v>199</v>
+      </c>
+      <c r="C77" t="s">
+        <v>106</v>
+      </c>
+      <c r="D77" t="s">
+        <v>200</v>
+      </c>
+      <c r="E77" t="s">
+        <v>201</v>
+      </c>
+      <c r="F77" t="s">
+        <v>104</v>
+      </c>
+      <c r="G77" t="s">
+        <v>115</v>
+      </c>
+      <c r="H77" t="s">
+        <v>115</v>
+      </c>
+      <c r="I77">
+        <v>16520</v>
+      </c>
+      <c r="J77" s="11">
+        <v>0.38421285199999999</v>
+      </c>
+      <c r="K77" s="10">
+        <v>4.6661869999999996E-3</v>
+      </c>
+      <c r="L77">
+        <v>650</v>
+      </c>
+      <c r="M77" t="s">
+        <v>106</v>
+      </c>
+      <c r="N77" t="s">
+        <v>6</v>
+      </c>
+      <c r="O77" t="str">
+        <f t="shared" si="0"/>
+        <v>Paul Farrelly</v>
+      </c>
+      <c r="P77" s="15"/>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>199</v>
+      </c>
+      <c r="C78" t="s">
+        <v>101</v>
+      </c>
+      <c r="D78" t="s">
+        <v>202</v>
+      </c>
+      <c r="E78" t="s">
+        <v>203</v>
+      </c>
+      <c r="F78" t="s">
+        <v>104</v>
+      </c>
+      <c r="G78" t="s">
+        <v>105</v>
+      </c>
+      <c r="H78" t="s">
+        <v>105</v>
+      </c>
+      <c r="I78">
+        <v>15870</v>
+      </c>
+      <c r="J78" s="11">
+        <v>0.36909551800000001</v>
+      </c>
+      <c r="K78" s="10">
+        <v>2.5482266E-2</v>
+      </c>
+      <c r="L78">
+        <v>650</v>
+      </c>
+      <c r="M78" t="s">
+        <v>106</v>
+      </c>
+      <c r="N78" t="s">
+        <v>5</v>
+      </c>
+      <c r="O78" t="str">
+        <f t="shared" si="0"/>
+        <v>Tony Cox</v>
+      </c>
+      <c r="P78" s="6" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J79" s="11"/>
+      <c r="K79" s="10"/>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J80" s="11"/>
+      <c r="K80" s="10"/>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>20</v>
+      </c>
+      <c r="B81" t="s">
+        <v>204</v>
+      </c>
+      <c r="C81" t="s">
+        <v>101</v>
+      </c>
+      <c r="D81" t="s">
+        <v>205</v>
+      </c>
+      <c r="E81" t="s">
+        <v>206</v>
+      </c>
+      <c r="F81" t="s">
+        <v>104</v>
+      </c>
+      <c r="G81" t="s">
+        <v>115</v>
+      </c>
+      <c r="H81" t="s">
+        <v>115</v>
+      </c>
+      <c r="I81">
+        <v>18428</v>
+      </c>
+      <c r="J81" s="11">
+        <v>0.40674524299999998</v>
+      </c>
+      <c r="K81" s="10">
+        <v>2.7000482999999999E-2</v>
+      </c>
+      <c r="L81">
+        <v>690</v>
+      </c>
+      <c r="M81" t="s">
+        <v>101</v>
+      </c>
+      <c r="N81" t="s">
+        <v>5</v>
+      </c>
+      <c r="O81" t="str">
+        <f t="shared" si="0"/>
+        <v>Simon Kirby</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>204</v>
+      </c>
+      <c r="C82" t="s">
+        <v>106</v>
+      </c>
+      <c r="D82" t="s">
+        <v>207</v>
+      </c>
+      <c r="E82" t="s">
+        <v>208</v>
+      </c>
+      <c r="F82" t="s">
+        <v>109</v>
+      </c>
+      <c r="G82" t="s">
+        <v>105</v>
+      </c>
+      <c r="H82" t="s">
+        <v>105</v>
+      </c>
+      <c r="I82">
+        <v>17738</v>
+      </c>
+      <c r="J82" s="11">
+        <v>0.391515473</v>
+      </c>
+      <c r="K82" s="10">
+        <v>4.2867772999999998E-2</v>
+      </c>
+      <c r="L82">
+        <v>690</v>
+      </c>
+      <c r="M82" t="s">
+        <v>101</v>
+      </c>
+      <c r="N82" t="s">
+        <v>6</v>
+      </c>
+      <c r="O82" t="str">
+        <f t="shared" si="0"/>
+        <v>Nancy Platts</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J83" s="11"/>
+      <c r="K83" s="10"/>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J84" s="11"/>
+      <c r="K84" s="10"/>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>21</v>
+      </c>
+      <c r="B85" t="s">
+        <v>209</v>
+      </c>
+      <c r="C85" t="s">
+        <v>101</v>
+      </c>
+      <c r="D85" t="s">
+        <v>210</v>
+      </c>
+      <c r="E85" t="s">
+        <v>211</v>
+      </c>
+      <c r="F85" t="s">
+        <v>109</v>
+      </c>
+      <c r="G85" t="s">
+        <v>105</v>
+      </c>
+      <c r="H85" t="s">
+        <v>105</v>
+      </c>
+      <c r="I85">
+        <v>16094</v>
+      </c>
+      <c r="J85" s="11">
+        <v>0.39596506300000001</v>
+      </c>
+      <c r="K85" s="10">
+        <v>3.2953686000000003E-2</v>
+      </c>
+      <c r="L85">
+        <v>730</v>
+      </c>
+      <c r="M85" t="s">
+        <v>101</v>
+      </c>
+      <c r="N85" t="s">
+        <v>5</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="0"/>
+        <v>Lucy Allan</v>
+      </c>
+      <c r="P85" s="6" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>209</v>
+      </c>
+      <c r="C86" t="s">
+        <v>106</v>
+      </c>
+      <c r="D86" t="s">
+        <v>144</v>
+      </c>
+      <c r="E86" t="s">
+        <v>212</v>
+      </c>
+      <c r="F86" t="s">
+        <v>104</v>
+      </c>
+      <c r="G86" t="s">
+        <v>115</v>
+      </c>
+      <c r="H86" t="s">
+        <v>115</v>
+      </c>
+      <c r="I86">
+        <v>15364</v>
+      </c>
+      <c r="J86" s="11">
+        <v>0.37800467500000001</v>
+      </c>
+      <c r="K86" s="10">
+        <v>-8.6813580000000001E-3</v>
+      </c>
+      <c r="L86">
+        <v>730</v>
+      </c>
+      <c r="M86" t="s">
+        <v>101</v>
+      </c>
+      <c r="N86" t="s">
+        <v>6</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="0"/>
+        <v>David Wright</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J87" s="11"/>
+      <c r="K87" s="10"/>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J88" s="11"/>
+      <c r="K88" s="10"/>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>22</v>
+      </c>
+      <c r="B89" t="s">
+        <v>213</v>
+      </c>
+      <c r="C89" t="s">
+        <v>101</v>
+      </c>
+      <c r="D89" t="s">
+        <v>214</v>
+      </c>
+      <c r="E89" t="s">
+        <v>215</v>
+      </c>
+      <c r="F89" t="s">
+        <v>109</v>
+      </c>
+      <c r="G89" t="s">
+        <v>105</v>
+      </c>
+      <c r="H89" t="s">
+        <v>105</v>
+      </c>
+      <c r="I89">
+        <v>20934</v>
+      </c>
+      <c r="J89" s="11">
+        <v>0.39567542999999999</v>
+      </c>
+      <c r="K89" s="10">
+        <v>-1.1488256000000001E-2</v>
+      </c>
+      <c r="L89">
+        <v>733</v>
+      </c>
+      <c r="M89" t="s">
+        <v>101</v>
+      </c>
+      <c r="N89" t="s">
+        <v>5</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="0"/>
+        <v>Caroline Ansell</v>
+      </c>
+      <c r="P89" s="6" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>213</v>
+      </c>
+      <c r="C90" t="s">
+        <v>195</v>
+      </c>
+      <c r="D90" t="s">
+        <v>118</v>
+      </c>
+      <c r="E90" t="s">
+        <v>216</v>
+      </c>
+      <c r="F90" t="s">
+        <v>104</v>
+      </c>
+      <c r="G90" t="s">
+        <v>115</v>
+      </c>
+      <c r="H90" t="s">
+        <v>115</v>
+      </c>
+      <c r="I90">
+        <v>20201</v>
+      </c>
+      <c r="J90" s="11">
+        <v>0.38182093099999997</v>
+      </c>
+      <c r="K90" s="10">
+        <v>-9.1243299999999999E-2</v>
+      </c>
+      <c r="L90">
+        <v>733</v>
+      </c>
+      <c r="M90" t="s">
+        <v>101</v>
+      </c>
+      <c r="N90" t="s">
+        <v>196</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="0"/>
+        <v>Stephen Lloyd</v>
+      </c>
+      <c r="P90" s="6" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>213</v>
+      </c>
+      <c r="J91" s="11"/>
+      <c r="K91" s="10"/>
+      <c r="N91" t="s">
+        <v>6</v>
+      </c>
+      <c r="O91" t="s">
+        <v>325</v>
+      </c>
+      <c r="P91" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J92" s="11"/>
+      <c r="K92" s="10"/>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>23</v>
+      </c>
+      <c r="B93" t="s">
+        <v>217</v>
+      </c>
+      <c r="C93" t="s">
+        <v>155</v>
+      </c>
+      <c r="D93" t="s">
+        <v>129</v>
+      </c>
+      <c r="E93" t="s">
+        <v>218</v>
+      </c>
+      <c r="F93" t="s">
+        <v>104</v>
+      </c>
+      <c r="G93" t="s">
+        <v>115</v>
+      </c>
+      <c r="H93" t="s">
+        <v>115</v>
+      </c>
+      <c r="I93">
+        <v>18320</v>
+      </c>
+      <c r="J93" s="11">
+        <v>0.42333911000000002</v>
+      </c>
+      <c r="K93" s="10">
+        <v>-5.7714284999999997E-2</v>
+      </c>
+      <c r="L93">
+        <v>795</v>
+      </c>
+      <c r="M93" t="s">
+        <v>155</v>
+      </c>
+      <c r="N93" t="s">
+        <v>6</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="0"/>
+        <v>John Woodcock</v>
+      </c>
+      <c r="P93" s="6" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>217</v>
+      </c>
+      <c r="C94" t="s">
+        <v>101</v>
+      </c>
+      <c r="D94" t="s">
+        <v>205</v>
+      </c>
+      <c r="E94" t="s">
+        <v>219</v>
+      </c>
+      <c r="F94" t="s">
+        <v>104</v>
+      </c>
+      <c r="G94" t="s">
+        <v>105</v>
+      </c>
+      <c r="H94" t="s">
+        <v>105</v>
+      </c>
+      <c r="I94">
+        <v>17525</v>
+      </c>
+      <c r="J94" s="11">
+        <v>0.40496822599999999</v>
+      </c>
+      <c r="K94" s="10">
+        <v>4.1945835000000001E-2</v>
+      </c>
+      <c r="L94">
+        <v>795</v>
+      </c>
+      <c r="M94" t="s">
+        <v>155</v>
+      </c>
+      <c r="N94" t="s">
+        <v>5</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="0"/>
+        <v>Simon Fell</v>
+      </c>
+      <c r="P94" s="6" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>217</v>
+      </c>
+      <c r="J95" s="11"/>
+      <c r="K95" s="10"/>
+      <c r="N95" t="s">
+        <v>196</v>
+      </c>
+      <c r="O95" t="s">
+        <v>328</v>
+      </c>
+      <c r="P95" s="6" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>217</v>
+      </c>
+      <c r="J96" s="11"/>
+      <c r="K96" s="10"/>
+      <c r="N96" t="s">
+        <v>3</v>
+      </c>
+      <c r="O96" t="s">
+        <v>331</v>
+      </c>
+      <c r="P96" s="6" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J97" s="11"/>
+      <c r="K97" s="10"/>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>24</v>
+      </c>
+      <c r="B98" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="C98" t="s">
+        <v>101</v>
+      </c>
+      <c r="D98" t="s">
+        <v>144</v>
+      </c>
+      <c r="E98" t="s">
+        <v>221</v>
+      </c>
+      <c r="F98" t="s">
+        <v>104</v>
+      </c>
+      <c r="G98" t="s">
+        <v>115</v>
+      </c>
+      <c r="H98" t="s">
+        <v>115</v>
+      </c>
+      <c r="I98">
+        <v>20759</v>
+      </c>
+      <c r="J98" s="11">
+        <v>0.39818544500000003</v>
+      </c>
+      <c r="K98" s="10">
+        <v>1.7792347999999999E-2</v>
+      </c>
+      <c r="L98">
+        <v>798</v>
+      </c>
+      <c r="M98" t="s">
+        <v>101</v>
+      </c>
+      <c r="N98" t="s">
+        <v>5</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="0"/>
+        <v>David Mundell</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>220</v>
+      </c>
+      <c r="C99" t="s">
+        <v>139</v>
+      </c>
+      <c r="D99" t="s">
+        <v>222</v>
+      </c>
+      <c r="E99" t="s">
+        <v>223</v>
+      </c>
+      <c r="F99" t="s">
+        <v>109</v>
+      </c>
+      <c r="G99" t="s">
+        <v>105</v>
+      </c>
+      <c r="H99" t="s">
+        <v>105</v>
+      </c>
+      <c r="I99">
+        <v>19961</v>
+      </c>
+      <c r="J99" s="11">
+        <v>0.382878736</v>
+      </c>
+      <c r="K99" s="10">
+        <v>0.27512575</v>
+      </c>
+      <c r="L99">
+        <v>798</v>
+      </c>
+      <c r="M99" t="s">
+        <v>101</v>
+      </c>
+      <c r="N99" t="s">
+        <v>1</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="0"/>
+        <v>Emma Harper</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J100" s="11"/>
+      <c r="K100" s="10"/>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>25</v>
+      </c>
+      <c r="B101" t="s">
+        <v>224</v>
+      </c>
+      <c r="C101" t="s">
+        <v>101</v>
+      </c>
+      <c r="D101" t="s">
+        <v>113</v>
+      </c>
+      <c r="E101" t="s">
+        <v>2</v>
+      </c>
+      <c r="F101" t="s">
+        <v>104</v>
+      </c>
+      <c r="G101" t="s">
+        <v>105</v>
+      </c>
+      <c r="H101" t="s">
+        <v>105</v>
+      </c>
+      <c r="I101">
+        <v>19744</v>
+      </c>
+      <c r="J101" s="11">
+        <v>0.406322028</v>
+      </c>
+      <c r="K101" s="10">
+        <v>2.3040542000000001E-2</v>
+      </c>
+      <c r="L101">
+        <v>801</v>
+      </c>
+      <c r="M101" t="s">
+        <v>101</v>
+      </c>
+      <c r="N101" t="s">
+        <v>5</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="0"/>
+        <v>Chris Green</v>
+      </c>
+      <c r="P101" s="6" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>224</v>
+      </c>
+      <c r="C102" t="s">
+        <v>106</v>
+      </c>
+      <c r="D102" t="s">
+        <v>229</v>
+      </c>
+      <c r="E102" t="s">
+        <v>230</v>
+      </c>
+      <c r="F102" t="s">
+        <v>109</v>
+      </c>
+      <c r="G102" t="s">
+        <v>115</v>
+      </c>
+      <c r="H102" t="s">
+        <v>115</v>
+      </c>
+      <c r="I102">
+        <v>18943</v>
+      </c>
+      <c r="J102" s="11">
+        <v>0.38983783300000002</v>
+      </c>
+      <c r="K102" s="10">
+        <v>4.6225989999999998E-3</v>
+      </c>
+      <c r="L102">
+        <v>801</v>
+      </c>
+      <c r="M102" t="s">
+        <v>101</v>
+      </c>
+      <c r="N102" t="s">
+        <v>6</v>
+      </c>
+      <c r="O102" t="str">
+        <f>CONCATENATE(D102," ",E102)</f>
+        <v>Julie Hilling</v>
+      </c>
+      <c r="P102" s="6" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J103" s="11"/>
+      <c r="K103" s="10"/>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>26</v>
+      </c>
+      <c r="B104" t="s">
+        <v>225</v>
+      </c>
+      <c r="C104" t="s">
+        <v>106</v>
+      </c>
+      <c r="D104" t="s">
+        <v>226</v>
+      </c>
+      <c r="E104" t="s">
+        <v>227</v>
+      </c>
+      <c r="F104" t="s">
+        <v>104</v>
+      </c>
+      <c r="G104" t="s">
+        <v>105</v>
+      </c>
+      <c r="H104" t="s">
+        <v>115</v>
+      </c>
+      <c r="I104">
+        <v>17374</v>
+      </c>
+      <c r="J104" s="11">
+        <v>0.43209231799999998</v>
+      </c>
+      <c r="K104" s="10">
+        <v>4.2326381000000003E-2</v>
+      </c>
+      <c r="L104">
+        <v>801</v>
+      </c>
+      <c r="M104" t="s">
+        <v>106</v>
+      </c>
+      <c r="N104" t="s">
+        <v>6</v>
+      </c>
+      <c r="O104" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>Rob Marris</v>
+      </c>
+      <c r="P104" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>225</v>
+      </c>
+      <c r="C105" t="s">
+        <v>101</v>
+      </c>
+      <c r="D105" t="s">
+        <v>200</v>
+      </c>
+      <c r="E105" t="s">
+        <v>228</v>
+      </c>
+      <c r="F105" t="s">
+        <v>104</v>
+      </c>
+      <c r="G105" t="s">
+        <v>115</v>
+      </c>
+      <c r="H105" t="s">
+        <v>115</v>
+      </c>
+      <c r="I105">
+        <v>16573</v>
+      </c>
+      <c r="J105" s="11">
+        <v>0.41217140400000002</v>
+      </c>
+      <c r="K105" s="10">
+        <v>5.1992929999999998E-3</v>
+      </c>
+      <c r="L105">
+        <v>801</v>
+      </c>
+      <c r="M105" t="s">
+        <v>106</v>
+      </c>
+      <c r="N105" t="s">
+        <v>5</v>
+      </c>
+      <c r="O105" t="str">
+        <f t="shared" si="0"/>
+        <v>Paul Uppal</v>
+      </c>
+      <c r="P105" s="6" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
+        <v>225</v>
+      </c>
+      <c r="J106" s="11"/>
+      <c r="K106" s="10"/>
+      <c r="N106" t="s">
+        <v>196</v>
+      </c>
+      <c r="O106" t="s">
+        <v>337</v>
+      </c>
+      <c r="P106" s="12"/>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>27</v>
+      </c>
+      <c r="B108" t="s">
+        <v>231</v>
+      </c>
+      <c r="C108" t="s">
+        <v>101</v>
+      </c>
+      <c r="D108" t="s">
+        <v>232</v>
+      </c>
+      <c r="E108" t="s">
+        <v>108</v>
+      </c>
+      <c r="F108" t="s">
+        <v>104</v>
+      </c>
+      <c r="G108" t="s">
+        <v>115</v>
+      </c>
+      <c r="H108" t="s">
+        <v>115</v>
+      </c>
+      <c r="I108">
+        <v>20227</v>
+      </c>
+      <c r="J108" s="11">
+        <v>0.43158299</v>
+      </c>
+      <c r="K108" s="10">
+        <v>4.6199948999999997E-2</v>
+      </c>
+      <c r="L108">
+        <v>806</v>
+      </c>
+      <c r="M108" t="s">
+        <v>101</v>
+      </c>
+      <c r="N108" t="s">
+        <v>5</v>
+      </c>
+      <c r="O108" t="str">
+        <f t="shared" si="0"/>
+        <v>Graham Evans</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
+        <v>231</v>
+      </c>
+      <c r="C109" t="s">
+        <v>106</v>
+      </c>
+      <c r="D109" t="s">
+        <v>233</v>
+      </c>
+      <c r="E109" t="s">
+        <v>234</v>
+      </c>
+      <c r="F109" t="s">
+        <v>109</v>
+      </c>
+      <c r="G109" t="s">
+        <v>105</v>
+      </c>
+      <c r="H109" t="s">
+        <v>105</v>
+      </c>
+      <c r="I109">
+        <v>19421</v>
+      </c>
+      <c r="J109" s="11">
+        <v>0.41438538800000002</v>
+      </c>
+      <c r="K109" s="10">
+        <v>5.1530194000000001E-2</v>
+      </c>
+      <c r="L109">
+        <v>806</v>
+      </c>
+      <c r="M109" t="s">
+        <v>101</v>
+      </c>
+      <c r="N109" t="s">
+        <v>6</v>
+      </c>
+      <c r="O109" t="str">
+        <f t="shared" si="0"/>
+        <v>Julia Tickridge</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J110" s="11"/>
+      <c r="K110" s="10"/>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B111" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="C111" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="D111" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="E111" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="F111" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="G111" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="H111" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="I111" s="17">
+        <v>9407</v>
+      </c>
+      <c r="J111" s="18">
+        <v>0.413894755</v>
+      </c>
+      <c r="K111" s="19">
+        <v>-0.20581991399999999</v>
+      </c>
+      <c r="L111" s="17">
+        <v>817</v>
+      </c>
+      <c r="M111" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="N111" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="O111" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>Alistair Carmichael</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B112" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="C112" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="D112" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="E112" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="F112" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="G112" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="H112" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="I112" s="17">
+        <v>8590</v>
+      </c>
+      <c r="J112" s="18">
+        <v>0.377947906</v>
+      </c>
+      <c r="K112" s="19">
+        <v>0.27239637</v>
+      </c>
+      <c r="L112" s="17">
+        <v>817</v>
+      </c>
+      <c r="M112" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="N112" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="O112" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>Danus  Skene</v>
+      </c>
+    </row>
+    <row r="113" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B113" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="C113" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="D113" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="E113" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="F113" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="G113" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="H113" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="I113" s="17">
+        <v>9560</v>
+      </c>
+      <c r="J113" s="18">
+        <v>0.24539877299999999</v>
+      </c>
+      <c r="K113" s="19">
+        <v>-0.16488613899999999</v>
+      </c>
+      <c r="L113" s="17">
+        <v>906</v>
+      </c>
+      <c r="M113" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="N113" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="O113" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>Alasdair McDonnell</v>
+      </c>
+    </row>
+    <row r="114" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B114" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="C114" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="D114" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="E114" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="F114" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="G114" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="H114" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="I114" s="17">
+        <v>8654</v>
+      </c>
+      <c r="J114" s="18">
+        <v>0.22214236200000001</v>
+      </c>
+      <c r="K114" s="19">
+        <v>-1.4796736E-2</v>
+      </c>
+      <c r="L114" s="17">
+        <v>906</v>
+      </c>
+      <c r="M114" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="N114" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="O114" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>Jonathan Bell</v>
+      </c>
+    </row>
+    <row r="115" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B115" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="C115" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="D115" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="E115" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="F115" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="G115" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="H115" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="I115" s="17">
+        <v>11942</v>
+      </c>
+      <c r="J115" s="18">
+        <v>0.32697204499999999</v>
+      </c>
+      <c r="K115" s="19"/>
+      <c r="L115" s="17">
+        <v>949</v>
+      </c>
+      <c r="M115" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="N115" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="O115" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>Danny Kinahan</v>
+      </c>
+    </row>
+    <row r="116" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B116" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="C116" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="D116" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="E116" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="F116" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="G116" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="H116" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="I116" s="17">
+        <v>10993</v>
+      </c>
+      <c r="J116" s="18">
+        <v>0.30098841799999998</v>
+      </c>
+      <c r="K116" s="19">
+        <v>-3.8215909999999999E-2</v>
+      </c>
+      <c r="L116" s="17">
+        <v>949</v>
+      </c>
+      <c r="M116" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="N116" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="O116" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>William McCrea</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="P2" r:id="rId1" tooltip="Byron Davies's Twitter profile" display="https://twitter.com/Byron_Davies"/>
+    <hyperlink ref="P3" r:id="rId2" tooltip="Tonia Antoniazzi's Twitter profile" display="https://twitter.com/ToniaAntoniazzi"/>
+    <hyperlink ref="P4" r:id="rId3" tooltip="Howard William Evans's Twitter profile" display="https://twitter.com/HowardWilliamEv"/>
+    <hyperlink ref="P6" r:id="rId4" display="https://twitter.com/ASollowayUK"/>
+    <hyperlink ref="P7" r:id="rId5" tooltip="Chris Williamson's Twitter profile" display="https://twitter.com/ChriswMP"/>
+    <hyperlink ref="P8" r:id="rId6" tooltip="Lucy Care's Twitter profile" display="https://twitter.com/Lucycare"/>
+    <hyperlink ref="P10" r:id="rId7" tooltip="Chris Matheson's Twitter profile" display="https://twitter.com/ChrisM4Chester"/>
+    <hyperlink ref="P14" r:id="rId8" tooltip="Gavin Barwell's Twitter profile" display="https://twitter.com/BackBarwell"/>
+    <hyperlink ref="P15" r:id="rId9" tooltip="Sarah Jones's Twitter profile" display="https://twitter.com/LabourSJ"/>
+    <hyperlink ref="P16" r:id="rId10" tooltip="Gill Hickson's Twitter profile" display="https://twitter.com/GhillyFlower"/>
+    <hyperlink ref="P18" r:id="rId11" tooltip="Peter Staveley's Twitter profile" display="https://twitter.com/PStaveleyUKIP"/>
+    <hyperlink ref="P12" r:id="rId12" tooltip="Elizabeth Jewkes's Twitter profile" display="https://twitter.com/elizabethjewkes"/>
+    <hyperlink ref="P21" r:id="rId13" tooltip="Ieuan Wyn Jones's Twitter profile" display="https://twitter.com/Rhosmeirch"/>
+    <hyperlink ref="P20" r:id="rId14" tooltip="Albert Owen's Twitter profile" display="https://twitter.com/AlbertOwenMP"/>
+    <hyperlink ref="P23" r:id="rId15" tooltip="James Davies's Twitter profile" display="https://twitter.com/JamesDavies"/>
+    <hyperlink ref="P24" r:id="rId16" tooltip="Chris Ruane's Twitter profile" display="https://twitter.com/ChrisRuane2017"/>
+    <hyperlink ref="P25" r:id="rId17" tooltip="Gwyn Williams's Twitter profile" display="https://twitter.com/wgwynwilliams"/>
+    <hyperlink ref="P28" r:id="rId18" tooltip="Rupa Huq's Twitter profile" display="https://twitter.com/RupaHuq"/>
+    <hyperlink ref="Q29" r:id="rId19" tooltip="Joy Morrissey's Twitter profile" display="https://twitter.com/joymorrissey"/>
+    <hyperlink ref="P30" r:id="rId20" tooltip="Jon Ball's Twitter profile" display="https://twitter.com/JonBall"/>
+    <hyperlink ref="P32" r:id="rId21" display="https://twitter.com/CalumKerrSNP"/>
+    <hyperlink ref="P36" r:id="rId22" tooltip="David Nuttall's Twitter profile" display="https://twitter.com/DNuttall"/>
+    <hyperlink ref="P37" r:id="rId23" tooltip="James Frith's Twitter profile" display="https://twitter.com/BuryNorthLabour"/>
+    <hyperlink ref="P38" r:id="rId24" tooltip="Richard Baum's Twitter profile" display="https://twitter.com/richardbaum"/>
+    <hyperlink ref="P40" r:id="rId25" tooltip="Margaret Greenwood's Twitter profile" display="https://twitter.com/MGreenwoodWW"/>
+    <hyperlink ref="P41" r:id="rId26" tooltip="Tony Caldeira's Twitter profile" display="https://twitter.com/tony4ww"/>
+    <hyperlink ref="P44" r:id="rId27" tooltip="Andrea Jenkyns's Twitter profile" display="https://twitter.com/andreajenkyns"/>
+    <hyperlink ref="P45" r:id="rId28" tooltip="Neil Dawson's Twitter profile" display="https://twitter.com/morleyneil"/>
+    <hyperlink ref="P47" r:id="rId29" tooltip="Holly Walker-Lynch's Twitter profile" display="https://twitter.com/HollyLynch5"/>
+    <hyperlink ref="P48" r:id="rId30" tooltip="Chris Pearson's Twitter profile" display="https://twitter.com/Pearson4Halifax"/>
+    <hyperlink ref="P52" r:id="rId31" tooltip="Ruth Cadbury's Twitter profile" display="https://twitter.com/RuthCadbury"/>
+    <hyperlink ref="P53" r:id="rId32" tooltip="Mary Macleod's Twitter profile" display="https://twitter.com/MaryMacleodUK"/>
+    <hyperlink ref="P54" r:id="rId33" tooltip="Joseph Bourke's Twitter profile" display="https://twitter.com/JosephBourke"/>
+    <hyperlink ref="P57" r:id="rId34" tooltip="Oliver Colvile's Twitter profile" display="https://twitter.com/olivercolvile"/>
+    <hyperlink ref="P58" r:id="rId35" tooltip="Luke Pollard's Twitter profile" display="https://twitter.com/LukePollard"/>
+    <hyperlink ref="P66" r:id="rId36" tooltip="John Kent's Twitter profile" display="https://twitter.com/John4Thurrock17"/>
+    <hyperlink ref="P67" r:id="rId37" tooltip="Kevin McNamara's Twitter profile" display="https://twitter.com/KevinMPMcNamara"/>
+    <hyperlink ref="P69" r:id="rId38" tooltip="Wes Streeting's Twitter profile" display="https://twitter.com/wesstreeting"/>
+    <hyperlink ref="P72" r:id="rId39" tooltip="Daniel Zeichner's Twitter profile" display="https://twitter.com/DanielZeichner"/>
+    <hyperlink ref="P73" r:id="rId40" tooltip="Julian Huppert's Twitter profile" display="https://twitter.com/julianhuppert"/>
+    <hyperlink ref="P74" r:id="rId41" tooltip="John Hayward's Twitter profile" display="https://twitter.com/DrJohnHayward"/>
+    <hyperlink ref="P75" r:id="rId42" tooltip="Stuart James Tuckwood's Twitter profile" display="https://twitter.com/StuartTuckwood"/>
+    <hyperlink ref="P85" r:id="rId43" tooltip="Lucy Allan's Twitter profile" display="https://twitter.com/lucyallan"/>
+    <hyperlink ref="P89" r:id="rId44" tooltip="Caroline Ansell's Twitter profile" display="https://twitter.com/Caroline_Ansell"/>
+    <hyperlink ref="P90" r:id="rId45" tooltip="Stephen Lloyd's Twitter profile" display="https://twitter.com/StephenLloydEBN"/>
+    <hyperlink ref="P91" r:id="rId46" tooltip="Jake Lambert's Twitter profile" display="https://twitter.com/JakeyLambert"/>
+    <hyperlink ref="P94" r:id="rId47" tooltip="Simon Fell's Twitter profile" display="https://twitter.com/simonfell"/>
+    <hyperlink ref="P93" r:id="rId48" tooltip="John Woodcock's Twitter profile" display="https://twitter.com/JWoodcockMP"/>
+    <hyperlink ref="P95" r:id="rId49" tooltip="Loraine Birchall's Twitter profile" display="https://twitter.com/LoraineBirchall"/>
+    <hyperlink ref="P96" r:id="rId50" tooltip="Alan Piper's Twitter profile" display="https://twitter.com/AlanPiper8"/>
+    <hyperlink ref="P101" r:id="rId51" tooltip="Chris Green's Twitter profile" display="https://twitter.com/CGreenUK"/>
+    <hyperlink ref="P102" r:id="rId52" display="https://twitter.com/JulieHilling"/>
+    <hyperlink ref="P105" r:id="rId53" tooltip="Paul Uppal's Twitter profile" display="https://twitter.com/PaulUppalWSW"/>
+    <hyperlink ref="P104" r:id="rId54" tooltip="Eleanor Smith's Twitter profile" display="https://twitter.com/eleanor74386209"/>
+    <hyperlink ref="P78" r:id="rId55" display="https://twitter.com/Tony__Cox"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId56"/>
+</worksheet>
 </file>
--- a/Twitter Sentiment - Local/twitternames.xlsx
+++ b/Twitter Sentiment - Local/twitternames.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Documents\Ivan\Twitter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Desktop\Election Project\GitHub\Twitter Sentiment - Local\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="400">
   <si>
     <t>LibDem</t>
   </si>
@@ -1042,6 +1042,189 @@
   </si>
   <si>
     <t>@Tony__Cox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UKIP </t>
+  </si>
+  <si>
+    <t>Constituency</t>
+  </si>
+  <si>
+    <t>Postcode</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Twitter</t>
+  </si>
+  <si>
+    <t>Dartford</t>
+  </si>
+  <si>
+    <t>DA1 2DF</t>
+  </si>
+  <si>
+    <t>Bachchu Kaini</t>
+  </si>
+  <si>
+    <t>@BKKaini</t>
+  </si>
+  <si>
+    <t>Gareth Johnson</t>
+  </si>
+  <si>
+    <t>Andy Blatchford</t>
+  </si>
+  <si>
+    <t>Ben Robert Fryer</t>
+  </si>
+  <si>
+    <t>Simon Beard</t>
+  </si>
+  <si>
+    <t>@Simon_Beard</t>
+  </si>
+  <si>
+    <t>Daisy Page</t>
+  </si>
+  <si>
+    <t>@DaisyPage07</t>
+  </si>
+  <si>
+    <t>Loughborough</t>
+  </si>
+  <si>
+    <t> LE11 5AL</t>
+  </si>
+  <si>
+    <t>Jewel Miah</t>
+  </si>
+  <si>
+    <t>@jewelmiah</t>
+  </si>
+  <si>
+    <t>Nicky Morgan</t>
+  </si>
+  <si>
+    <t>@NickyMorgan01</t>
+  </si>
+  <si>
+    <t>David Walker</t>
+  </si>
+  <si>
+    <t>Northampton North</t>
+  </si>
+  <si>
+    <t>NN2 7QF</t>
+  </si>
+  <si>
+    <t>Sally Keeble</t>
+  </si>
+  <si>
+    <t>@Sally_Keeble</t>
+  </si>
+  <si>
+    <t>Michael Ellis</t>
+  </si>
+  <si>
+    <t>@Michael_Ellis1</t>
+  </si>
+  <si>
+    <t>Steve Miller</t>
+  </si>
+  <si>
+    <t>@serial_miller</t>
+  </si>
+  <si>
+    <t>Portsmouth North</t>
+  </si>
+  <si>
+    <t>PO6 2QS</t>
+  </si>
+  <si>
+    <t>Rumal Khan</t>
+  </si>
+  <si>
+    <t>@RumalKhan</t>
+  </si>
+  <si>
+    <t>Penny Mordaunt</t>
+  </si>
+  <si>
+    <t>@PompeyToryParty</t>
+  </si>
+  <si>
+    <t>Darren Sanders</t>
+  </si>
+  <si>
+    <t>@darrensandersld</t>
+  </si>
+  <si>
+    <t>Watford</t>
+  </si>
+  <si>
+    <t>WD17 2LW</t>
+  </si>
+  <si>
+    <t>Chris Ostrowski</t>
+  </si>
+  <si>
+    <t>@Chris4Watford</t>
+  </si>
+  <si>
+    <t>Ian Alexander Eric Stotesbury</t>
+  </si>
+  <si>
+    <t>@ianstotesbury</t>
+  </si>
+  <si>
+    <t>Lincoln</t>
+  </si>
+  <si>
+    <t>LN1 1ES</t>
+  </si>
+  <si>
+    <t>Karen Lee</t>
+  </si>
+  <si>
+    <t>@KForCullercoats</t>
+  </si>
+  <si>
+    <t>Karl McCartney</t>
+  </si>
+  <si>
+    <t>@karlmccartney</t>
+  </si>
+  <si>
+    <t>Bristol North West</t>
+  </si>
+  <si>
+    <t>BS8 1NA</t>
+  </si>
+  <si>
+    <t>Darren Jones</t>
+  </si>
+  <si>
+    <t>@darrenpjones</t>
+  </si>
+  <si>
+    <t>Charlotte Leslie</t>
+  </si>
+  <si>
+    <t>@CharlotteLeslie</t>
+  </si>
+  <si>
+    <t>Sharmila Bousa</t>
+  </si>
+  <si>
+    <t>@sharmilabousa</t>
+  </si>
+  <si>
+    <t>Celia Downie</t>
+  </si>
+  <si>
+    <t>@CeliaBristol</t>
   </si>
 </sst>
 </file>
@@ -1049,10 +1232,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="167" formatCode="0.00000"/>
-    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1071,6 +1254,25 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1150,7 +1352,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1161,16 +1363,32 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1463,7 +1681,7 @@
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="39.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
@@ -1472,7 +1690,7 @@
     <col min="8" max="8" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="C1" t="s">
         <v>5</v>
       </c>
@@ -1492,7 +1710,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1511,7 +1729,7 @@
       <c r="G2" s="7"/>
       <c r="H2" s="8"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="C3" s="6" t="s">
         <v>83</v>
       </c>
@@ -1524,14 +1742,14 @@
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1552,7 +1770,7 @@
       </c>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="B6" s="1"/>
       <c r="C6" s="6" t="s">
         <v>79</v>
@@ -1568,7 +1786,7 @@
       </c>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="B7" s="1"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -1576,7 +1794,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1597,7 +1815,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="B9" s="1"/>
       <c r="C9" s="6" t="s">
         <v>77</v>
@@ -1613,7 +1831,7 @@
       </c>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="B10" s="1"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -1621,7 +1839,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1638,7 +1856,7 @@
       <c r="G11" s="7"/>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="C12" s="3"/>
       <c r="D12" s="6" t="s">
         <v>75</v>
@@ -1646,13 +1864,13 @@
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="C13" s="4"/>
       <c r="D13" s="6"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1669,7 +1887,7 @@
       <c r="G14" s="7"/>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="B15" s="1"/>
       <c r="C15" s="6" t="s">
         <v>73</v>
@@ -1680,14 +1898,14 @@
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="B16" s="1"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1706,7 +1924,7 @@
       <c r="G17" s="7"/>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="B18" s="1"/>
       <c r="C18" s="6" t="s">
         <v>71</v>
@@ -1718,7 +1936,7 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="B19" s="1"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -1726,7 +1944,7 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -1749,7 +1967,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="B21" s="1"/>
       <c r="C21" s="6" t="s">
         <v>68</v>
@@ -1767,7 +1985,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="B22" s="1"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
@@ -1775,7 +1993,7 @@
       <c r="G22" s="4"/>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -1794,7 +2012,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="B24" s="1"/>
       <c r="C24" s="6" t="s">
         <v>66</v>
@@ -1805,14 +2023,14 @@
       <c r="G24" s="4"/>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="B25" s="1"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -1833,7 +2051,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="B27" s="1"/>
       <c r="C27" s="6" t="s">
         <v>61</v>
@@ -1848,14 +2066,14 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="B28" s="1"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -1877,7 +2095,7 @@
       <c r="G29" s="7"/>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="C30" t="s">
         <v>59</v>
       </c>
@@ -1922,13 +2140,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q116"/>
+  <dimension ref="A1:Q128"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="J131" sqref="J131"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="39.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.85546875" customWidth="1"/>
@@ -1948,7 +2166,7 @@
     <col min="17" max="17" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="B1" t="s">
         <v>89</v>
       </c>
@@ -1992,7 +2210,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2043,7 +2261,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17">
       <c r="B3" t="s">
         <v>100</v>
       </c>
@@ -2094,7 +2312,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17">
       <c r="B4" t="s">
         <v>100</v>
       </c>
@@ -2110,12 +2328,12 @@
         <v>259</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17">
       <c r="J5" s="11"/>
       <c r="K5" s="10"/>
       <c r="P5" s="6"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17">
       <c r="A6">
         <v>2</v>
       </c>
@@ -2166,7 +2384,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17">
       <c r="B7" t="s">
         <v>110</v>
       </c>
@@ -2214,7 +2432,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17">
       <c r="B8" t="s">
         <v>110</v>
       </c>
@@ -2230,12 +2448,12 @@
         <v>262</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17">
       <c r="J9" s="11"/>
       <c r="K9" s="10"/>
       <c r="P9" s="6"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17">
       <c r="A10">
         <v>3</v>
       </c>
@@ -2286,7 +2504,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17">
       <c r="B11" t="s">
         <v>116</v>
       </c>
@@ -2335,7 +2553,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17">
       <c r="B12" t="s">
         <v>116</v>
       </c>
@@ -2351,12 +2569,12 @@
         <v>268</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17">
       <c r="J13" s="11"/>
       <c r="K13" s="10"/>
       <c r="P13" s="6"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17">
       <c r="A14">
         <v>4</v>
       </c>
@@ -2407,7 +2625,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17">
       <c r="B15" t="s">
         <v>17</v>
       </c>
@@ -2455,7 +2673,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17">
       <c r="B16" t="s">
         <v>17</v>
       </c>
@@ -2471,7 +2689,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17">
       <c r="B17" t="s">
         <v>17</v>
       </c>
@@ -2485,7 +2703,7 @@
       </c>
       <c r="P17" s="13"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17">
       <c r="B18" t="s">
         <v>17</v>
       </c>
@@ -2501,12 +2719,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17">
       <c r="J19" s="11"/>
       <c r="K19" s="10"/>
       <c r="P19" s="6"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17">
       <c r="A20">
         <v>5</v>
       </c>
@@ -2557,7 +2775,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17">
       <c r="B21" t="s">
         <v>124</v>
       </c>
@@ -2608,11 +2826,11 @@
         <v>271</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17">
       <c r="J22" s="11"/>
       <c r="K22" s="10"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17">
       <c r="A23">
         <v>6</v>
       </c>
@@ -2663,7 +2881,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17">
       <c r="B24" t="s">
         <v>131</v>
       </c>
@@ -2711,7 +2929,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17">
       <c r="B25" t="s">
         <v>131</v>
       </c>
@@ -2727,7 +2945,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17">
       <c r="B26" t="s">
         <v>131</v>
       </c>
@@ -2741,11 +2959,11 @@
       </c>
       <c r="P26" s="13"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17">
       <c r="J27" s="11"/>
       <c r="K27" s="10"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17">
       <c r="A28">
         <v>7</v>
       </c>
@@ -2796,7 +3014,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17">
       <c r="B29" t="s">
         <v>134</v>
       </c>
@@ -2847,7 +3065,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17">
       <c r="B30" t="s">
         <v>134</v>
       </c>
@@ -2863,7 +3081,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17">
       <c r="J31" s="11"/>
       <c r="K31" s="10"/>
       <c r="O31" t="str">
@@ -2871,7 +3089,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17">
       <c r="A32">
         <v>8</v>
       </c>
@@ -2922,7 +3140,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17">
       <c r="B33" t="s">
         <v>4</v>
       </c>
@@ -2970,7 +3188,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17">
       <c r="B34" t="s">
         <v>4</v>
       </c>
@@ -2986,7 +3204,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17">
       <c r="J35" s="11"/>
       <c r="K35" s="10"/>
       <c r="O35" t="str">
@@ -2994,7 +3212,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17">
       <c r="A36">
         <v>9</v>
       </c>
@@ -3045,7 +3263,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17">
       <c r="B37" t="s">
         <v>143</v>
       </c>
@@ -3093,7 +3311,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17">
       <c r="B38" t="s">
         <v>143</v>
       </c>
@@ -3109,7 +3327,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17">
       <c r="J39" s="11"/>
       <c r="K39" s="10"/>
       <c r="O39" t="str">
@@ -3117,7 +3335,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17">
       <c r="A40">
         <v>10</v>
       </c>
@@ -3168,7 +3386,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17">
       <c r="B41" t="s">
         <v>147</v>
       </c>
@@ -3219,7 +3437,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17">
       <c r="B42" t="s">
         <v>147</v>
       </c>
@@ -3233,11 +3451,11 @@
       </c>
       <c r="P42" s="6"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17">
       <c r="J43" s="11"/>
       <c r="K43" s="10"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17">
       <c r="A44">
         <v>11</v>
       </c>
@@ -3288,7 +3506,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17">
       <c r="B45" t="s">
         <v>152</v>
       </c>
@@ -3339,11 +3557,11 @@
         <v>294</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17">
       <c r="J46" s="11"/>
       <c r="K46" s="10"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17">
       <c r="A47">
         <v>12</v>
       </c>
@@ -3394,7 +3612,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17">
       <c r="B48" t="s">
         <v>158</v>
       </c>
@@ -3445,7 +3663,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16">
       <c r="B49" t="s">
         <v>158</v>
       </c>
@@ -3459,7 +3677,7 @@
       </c>
       <c r="P49" s="13"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16">
       <c r="B50" t="s">
         <v>158</v>
       </c>
@@ -3473,11 +3691,11 @@
       </c>
       <c r="P50" s="13"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16">
       <c r="J51" s="11"/>
       <c r="K51" s="10"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16">
       <c r="A52">
         <v>13</v>
       </c>
@@ -3528,7 +3746,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16">
       <c r="B53" t="s">
         <v>163</v>
       </c>
@@ -3576,7 +3794,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16">
       <c r="B54" t="s">
         <v>163</v>
       </c>
@@ -3592,7 +3810,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16">
       <c r="B55" t="s">
         <v>163</v>
       </c>
@@ -3606,11 +3824,11 @@
       </c>
       <c r="P55" s="6"/>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16">
       <c r="J56" s="11"/>
       <c r="K56" s="10"/>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16">
       <c r="A57">
         <v>14</v>
       </c>
@@ -3661,7 +3879,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16">
       <c r="B58" t="s">
         <v>168</v>
       </c>
@@ -3709,7 +3927,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16">
       <c r="B59" t="s">
         <v>168</v>
       </c>
@@ -3722,7 +3940,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16">
       <c r="B60" t="s">
         <v>168</v>
       </c>
@@ -3735,11 +3953,11 @@
         <v>308</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16">
       <c r="J61" s="11"/>
       <c r="K61" s="10"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16">
       <c r="A62">
         <v>15</v>
       </c>
@@ -3786,7 +4004,7 @@
       </c>
       <c r="P62" s="13"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16">
       <c r="B63" t="s">
         <v>173</v>
       </c>
@@ -3832,11 +4050,11 @@
       </c>
       <c r="P63" s="13"/>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16">
       <c r="J64" s="11"/>
       <c r="K64" s="10"/>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17">
       <c r="A65">
         <v>16</v>
       </c>
@@ -3887,7 +4105,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17">
       <c r="B66" t="s">
         <v>182</v>
       </c>
@@ -3938,7 +4156,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17">
       <c r="B67" t="s">
         <v>182</v>
       </c>
@@ -3951,11 +4169,11 @@
         <v>312</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17">
       <c r="J68" s="11"/>
       <c r="K68" s="10"/>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17">
       <c r="A69">
         <v>17</v>
       </c>
@@ -4006,7 +4224,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17">
       <c r="B70" t="s">
         <v>187</v>
       </c>
@@ -4052,11 +4270,11 @@
       </c>
       <c r="P70" s="13"/>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17">
       <c r="J71" s="11"/>
       <c r="K71" s="10"/>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17">
       <c r="A72">
         <v>18</v>
       </c>
@@ -4107,7 +4325,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17">
       <c r="B73" t="s">
         <v>192</v>
       </c>
@@ -4155,7 +4373,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17">
       <c r="B74" t="s">
         <v>192</v>
       </c>
@@ -4171,7 +4389,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17">
       <c r="B75" t="s">
         <v>192</v>
       </c>
@@ -4187,11 +4405,11 @@
         <v>319</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17">
       <c r="J76" s="11"/>
       <c r="K76" s="10"/>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17">
       <c r="A77">
         <v>19</v>
       </c>
@@ -4240,7 +4458,7 @@
       </c>
       <c r="P77" s="15"/>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17">
       <c r="B78" t="s">
         <v>199</v>
       </c>
@@ -4288,15 +4506,15 @@
         <v>338</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17">
       <c r="J79" s="11"/>
       <c r="K79" s="10"/>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17">
       <c r="J80" s="11"/>
       <c r="K80" s="10"/>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16">
       <c r="A81">
         <v>20</v>
       </c>
@@ -4344,7 +4562,7 @@
         <v>Simon Kirby</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16">
       <c r="B82" t="s">
         <v>204</v>
       </c>
@@ -4389,15 +4607,15 @@
         <v>Nancy Platts</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16">
       <c r="J83" s="11"/>
       <c r="K83" s="10"/>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16">
       <c r="J84" s="11"/>
       <c r="K84" s="10"/>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16">
       <c r="A85">
         <v>21</v>
       </c>
@@ -4448,7 +4666,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16">
       <c r="B86" t="s">
         <v>209</v>
       </c>
@@ -4493,15 +4711,15 @@
         <v>David Wright</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16">
       <c r="J87" s="11"/>
       <c r="K87" s="10"/>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16">
       <c r="J88" s="11"/>
       <c r="K88" s="10"/>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16">
       <c r="A89">
         <v>22</v>
       </c>
@@ -4552,7 +4770,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16">
       <c r="B90" t="s">
         <v>213</v>
       </c>
@@ -4600,7 +4818,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16">
       <c r="B91" t="s">
         <v>213</v>
       </c>
@@ -4616,11 +4834,11 @@
         <v>324</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16">
       <c r="J92" s="11"/>
       <c r="K92" s="10"/>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16">
       <c r="A93">
         <v>23</v>
       </c>
@@ -4671,7 +4889,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16">
       <c r="B94" t="s">
         <v>217</v>
       </c>
@@ -4719,7 +4937,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16">
       <c r="B95" t="s">
         <v>217</v>
       </c>
@@ -4735,7 +4953,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16">
       <c r="B96" t="s">
         <v>217</v>
       </c>
@@ -4751,11 +4969,11 @@
         <v>330</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:17">
       <c r="J97" s="11"/>
       <c r="K97" s="10"/>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:17">
       <c r="A98">
         <v>24</v>
       </c>
@@ -4803,7 +5021,7 @@
         <v>David Mundell</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:17">
       <c r="B99" t="s">
         <v>220</v>
       </c>
@@ -4848,11 +5066,11 @@
         <v>Emma Harper</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:17">
       <c r="J100" s="11"/>
       <c r="K100" s="10"/>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:17">
       <c r="A101">
         <v>25</v>
       </c>
@@ -4903,7 +5121,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:17">
       <c r="B102" t="s">
         <v>224</v>
       </c>
@@ -4951,11 +5169,11 @@
         <v>333</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:17">
       <c r="J103" s="11"/>
       <c r="K103" s="10"/>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:17">
       <c r="A104">
         <v>26</v>
       </c>
@@ -5009,7 +5227,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:17">
       <c r="B105" t="s">
         <v>225</v>
       </c>
@@ -5057,7 +5275,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:17">
       <c r="B106" t="s">
         <v>225</v>
       </c>
@@ -5071,7 +5289,7 @@
       </c>
       <c r="P106" s="12"/>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:17">
       <c r="A108">
         <v>27</v>
       </c>
@@ -5119,7 +5337,7 @@
         <v>Graham Evans</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:17">
       <c r="B109" t="s">
         <v>231</v>
       </c>
@@ -5164,11 +5382,11 @@
         <v>Julia Tickridge</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:17">
       <c r="J110" s="11"/>
       <c r="K110" s="10"/>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:17">
       <c r="B111" s="17" t="s">
         <v>235</v>
       </c>
@@ -5213,7 +5431,7 @@
         <v>Alistair Carmichael</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:17">
       <c r="B112" s="17" t="s">
         <v>235</v>
       </c>
@@ -5258,7 +5476,7 @@
         <v>Danus  Skene</v>
       </c>
     </row>
-    <row r="113" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:15">
       <c r="B113" s="17" t="s">
         <v>240</v>
       </c>
@@ -5303,7 +5521,7 @@
         <v>Alasdair McDonnell</v>
       </c>
     </row>
-    <row r="114" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:15">
       <c r="B114" s="17" t="s">
         <v>240</v>
       </c>
@@ -5348,7 +5566,7 @@
         <v>Jonathan Bell</v>
       </c>
     </row>
-    <row r="115" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:15">
       <c r="B115" s="17" t="s">
         <v>249</v>
       </c>
@@ -5391,7 +5609,7 @@
         <v>Danny Kinahan</v>
       </c>
     </row>
-    <row r="116" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:15">
       <c r="B116" s="17" t="s">
         <v>249</v>
       </c>
@@ -5436,7 +5654,300 @@
         <v>William McCrea</v>
       </c>
     </row>
+    <row r="119" spans="2:15">
+      <c r="B119" s="20"/>
+      <c r="C119" s="20"/>
+      <c r="D119" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="E119" s="21"/>
+      <c r="F119" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="G119" s="21"/>
+      <c r="H119" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="I119" s="21"/>
+      <c r="J119" s="21" t="s">
+        <v>339</v>
+      </c>
+      <c r="K119" s="21"/>
+      <c r="L119" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="M119" s="21"/>
+    </row>
+    <row r="120" spans="2:15">
+      <c r="B120" s="20" t="s">
+        <v>340</v>
+      </c>
+      <c r="C120" s="20" t="s">
+        <v>341</v>
+      </c>
+      <c r="D120" s="20" t="s">
+        <v>342</v>
+      </c>
+      <c r="E120" s="20" t="s">
+        <v>343</v>
+      </c>
+      <c r="F120" s="20" t="s">
+        <v>342</v>
+      </c>
+      <c r="G120" s="20" t="s">
+        <v>343</v>
+      </c>
+      <c r="H120" s="20" t="s">
+        <v>342</v>
+      </c>
+      <c r="I120" s="20" t="s">
+        <v>343</v>
+      </c>
+      <c r="J120" s="20" t="s">
+        <v>342</v>
+      </c>
+      <c r="K120" s="20" t="s">
+        <v>343</v>
+      </c>
+      <c r="L120" s="20" t="s">
+        <v>342</v>
+      </c>
+      <c r="M120" s="20" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="121" spans="2:15">
+      <c r="B121" s="20" t="s">
+        <v>344</v>
+      </c>
+      <c r="C121" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="D121" s="22" t="s">
+        <v>346</v>
+      </c>
+      <c r="E121" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="F121" s="22" t="s">
+        <v>348</v>
+      </c>
+      <c r="G121" s="23"/>
+      <c r="H121" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="I121" s="23"/>
+      <c r="J121" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="K121" s="23"/>
+      <c r="L121" s="22" t="s">
+        <v>351</v>
+      </c>
+      <c r="M121" s="22" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="122" spans="2:15">
+      <c r="B122" s="20"/>
+      <c r="C122" s="20"/>
+      <c r="D122" s="22" t="s">
+        <v>353</v>
+      </c>
+      <c r="E122" s="22" t="s">
+        <v>354</v>
+      </c>
+      <c r="F122" s="22"/>
+      <c r="G122" s="22"/>
+      <c r="H122" s="22"/>
+      <c r="I122" s="22"/>
+      <c r="J122" s="22"/>
+      <c r="K122" s="22"/>
+      <c r="L122" s="22"/>
+      <c r="M122" s="22"/>
+    </row>
+    <row r="123" spans="2:15">
+      <c r="B123" s="20" t="s">
+        <v>355</v>
+      </c>
+      <c r="C123" s="20" t="s">
+        <v>356</v>
+      </c>
+      <c r="D123" s="22" t="s">
+        <v>357</v>
+      </c>
+      <c r="E123" t="s">
+        <v>358</v>
+      </c>
+      <c r="F123" t="s">
+        <v>359</v>
+      </c>
+      <c r="G123" t="s">
+        <v>360</v>
+      </c>
+      <c r="H123" s="22"/>
+      <c r="I123" s="22"/>
+      <c r="J123" s="22"/>
+      <c r="K123" s="22"/>
+      <c r="L123" t="s">
+        <v>361</v>
+      </c>
+      <c r="M123" s="23"/>
+    </row>
+    <row r="124" spans="2:15">
+      <c r="B124" s="24" t="s">
+        <v>362</v>
+      </c>
+      <c r="C124" s="25" t="s">
+        <v>363</v>
+      </c>
+      <c r="D124" s="22" t="s">
+        <v>364</v>
+      </c>
+      <c r="E124" t="s">
+        <v>365</v>
+      </c>
+      <c r="F124" t="s">
+        <v>366</v>
+      </c>
+      <c r="G124" t="s">
+        <v>367</v>
+      </c>
+      <c r="H124" s="22" t="s">
+        <v>368</v>
+      </c>
+      <c r="I124" t="s">
+        <v>369</v>
+      </c>
+      <c r="J124" s="22"/>
+      <c r="K124" s="22"/>
+      <c r="L124" s="22"/>
+      <c r="M124" s="20"/>
+    </row>
+    <row r="125" spans="2:15">
+      <c r="B125" s="24" t="s">
+        <v>370</v>
+      </c>
+      <c r="C125" s="24" t="s">
+        <v>371</v>
+      </c>
+      <c r="D125" s="22" t="s">
+        <v>372</v>
+      </c>
+      <c r="E125" t="s">
+        <v>373</v>
+      </c>
+      <c r="F125" s="22" t="s">
+        <v>374</v>
+      </c>
+      <c r="G125" t="s">
+        <v>375</v>
+      </c>
+      <c r="H125" s="22"/>
+      <c r="I125" s="22"/>
+      <c r="J125" s="22"/>
+      <c r="K125" s="22"/>
+      <c r="L125" s="22" t="s">
+        <v>376</v>
+      </c>
+      <c r="M125" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="126" spans="2:15">
+      <c r="B126" s="24" t="s">
+        <v>378</v>
+      </c>
+      <c r="C126" s="24" t="s">
+        <v>379</v>
+      </c>
+      <c r="D126" s="22" t="s">
+        <v>380</v>
+      </c>
+      <c r="E126" t="s">
+        <v>381</v>
+      </c>
+      <c r="F126" s="22"/>
+      <c r="G126" s="22"/>
+      <c r="H126" s="22"/>
+      <c r="I126" s="22"/>
+      <c r="J126" s="22"/>
+      <c r="K126" s="22"/>
+      <c r="L126" s="22" t="s">
+        <v>382</v>
+      </c>
+      <c r="M126" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="127" spans="2:15">
+      <c r="B127" s="24" t="s">
+        <v>384</v>
+      </c>
+      <c r="C127" s="26" t="s">
+        <v>385</v>
+      </c>
+      <c r="D127" s="22" t="s">
+        <v>386</v>
+      </c>
+      <c r="E127" t="s">
+        <v>387</v>
+      </c>
+      <c r="F127" s="22" t="s">
+        <v>388</v>
+      </c>
+      <c r="G127" t="s">
+        <v>389</v>
+      </c>
+      <c r="H127" s="22"/>
+      <c r="I127" s="22"/>
+      <c r="J127" s="22"/>
+      <c r="K127" s="22"/>
+      <c r="L127" s="27"/>
+      <c r="M127" s="27"/>
+    </row>
+    <row r="128" spans="2:15">
+      <c r="B128" s="24" t="s">
+        <v>390</v>
+      </c>
+      <c r="C128" s="26" t="s">
+        <v>391</v>
+      </c>
+      <c r="D128" s="22" t="s">
+        <v>392</v>
+      </c>
+      <c r="E128" s="22" t="s">
+        <v>393</v>
+      </c>
+      <c r="F128" s="22" t="s">
+        <v>394</v>
+      </c>
+      <c r="G128" s="22" t="s">
+        <v>395</v>
+      </c>
+      <c r="H128" s="22" t="s">
+        <v>396</v>
+      </c>
+      <c r="I128" s="22" t="s">
+        <v>397</v>
+      </c>
+      <c r="J128" s="22"/>
+      <c r="K128" s="22"/>
+      <c r="L128" s="22" t="s">
+        <v>398</v>
+      </c>
+      <c r="M128" s="22" t="s">
+        <v>399</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="D119:E119"/>
+    <mergeCell ref="F119:G119"/>
+    <mergeCell ref="H119:I119"/>
+    <mergeCell ref="J119:K119"/>
+    <mergeCell ref="L119:M119"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="P2" r:id="rId1" tooltip="Byron Davies's Twitter profile" display="https://twitter.com/Byron_Davies"/>
     <hyperlink ref="P3" r:id="rId2" tooltip="Tonia Antoniazzi's Twitter profile" display="https://twitter.com/ToniaAntoniazzi"/>

--- a/Twitter Sentiment - Local/twitternames.xlsx
+++ b/Twitter Sentiment - Local/twitternames.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11775" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11775" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Brexit" sheetId="2" r:id="rId1"/>
     <sheet name="Margins" sheetId="3" r:id="rId2"/>
+    <sheet name="List of Constituencies" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="404">
   <si>
     <t>LibDem</t>
   </si>
@@ -1225,6 +1226,18 @@
   </si>
   <si>
     <t>@CeliaBristol</t>
+  </si>
+  <si>
+    <t>Brexit</t>
+  </si>
+  <si>
+    <t>Consistent voting</t>
+  </si>
+  <si>
+    <t>Small winning margin</t>
+  </si>
+  <si>
+    <t>REJECTED</t>
   </si>
 </sst>
 </file>
@@ -1277,7 +1290,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1338,6 +1351,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF99FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1352,7 +1377,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1374,9 +1399,6 @@
     <xf numFmtId="165" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1389,15 +1411,40 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF99FF"/>
       <color rgb="FFDC3124"/>
     </mruColors>
   </colors>
@@ -1678,7 +1725,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2142,8 +2189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="J131" sqref="J131"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="C127" sqref="C127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5657,26 +5704,26 @@
     <row r="119" spans="2:15">
       <c r="B119" s="20"/>
       <c r="C119" s="20"/>
-      <c r="D119" s="21" t="s">
+      <c r="D119" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="E119" s="21"/>
-      <c r="F119" s="21" t="s">
+      <c r="E119" s="27"/>
+      <c r="F119" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="G119" s="21"/>
-      <c r="H119" s="21" t="s">
+      <c r="G119" s="27"/>
+      <c r="H119" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="I119" s="21"/>
-      <c r="J119" s="21" t="s">
+      <c r="I119" s="27"/>
+      <c r="J119" s="27" t="s">
         <v>339</v>
       </c>
-      <c r="K119" s="21"/>
-      <c r="L119" s="21" t="s">
+      <c r="K119" s="27"/>
+      <c r="L119" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="M119" s="21"/>
+      <c r="M119" s="27"/>
     </row>
     <row r="120" spans="2:15">
       <c r="B120" s="20" t="s">
@@ -5723,48 +5770,51 @@
       <c r="C121" s="20" t="s">
         <v>345</v>
       </c>
-      <c r="D121" s="22" t="s">
+      <c r="D121" s="21" t="s">
         <v>346</v>
       </c>
-      <c r="E121" s="22" t="s">
+      <c r="E121" s="21" t="s">
         <v>347</v>
       </c>
-      <c r="F121" s="22" t="s">
+      <c r="F121" s="21" t="s">
         <v>348</v>
       </c>
-      <c r="G121" s="23"/>
-      <c r="H121" s="22" t="s">
+      <c r="G121" s="22"/>
+      <c r="H121" s="21" t="s">
         <v>349</v>
       </c>
-      <c r="I121" s="23"/>
-      <c r="J121" s="22" t="s">
+      <c r="I121" s="22"/>
+      <c r="J121" s="21" t="s">
         <v>350</v>
       </c>
-      <c r="K121" s="23"/>
-      <c r="L121" s="22" t="s">
+      <c r="K121" s="22"/>
+      <c r="L121" s="21" t="s">
         <v>351</v>
       </c>
-      <c r="M121" s="22" t="s">
+      <c r="M121" s="21" t="s">
         <v>352</v>
+      </c>
+      <c r="O121" s="15" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="122" spans="2:15">
       <c r="B122" s="20"/>
       <c r="C122" s="20"/>
-      <c r="D122" s="22" t="s">
+      <c r="D122" s="21" t="s">
         <v>353</v>
       </c>
-      <c r="E122" s="22" t="s">
+      <c r="E122" s="21" t="s">
         <v>354</v>
       </c>
-      <c r="F122" s="22"/>
-      <c r="G122" s="22"/>
-      <c r="H122" s="22"/>
-      <c r="I122" s="22"/>
-      <c r="J122" s="22"/>
-      <c r="K122" s="22"/>
-      <c r="L122" s="22"/>
-      <c r="M122" s="22"/>
+      <c r="F122" s="21"/>
+      <c r="G122" s="21"/>
+      <c r="H122" s="21"/>
+      <c r="I122" s="21"/>
+      <c r="J122" s="21"/>
+      <c r="K122" s="21"/>
+      <c r="L122" s="21"/>
+      <c r="M122" s="21"/>
     </row>
     <row r="123" spans="2:15">
       <c r="B123" s="20" t="s">
@@ -5773,7 +5823,7 @@
       <c r="C123" s="20" t="s">
         <v>356</v>
       </c>
-      <c r="D123" s="22" t="s">
+      <c r="D123" s="21" t="s">
         <v>357</v>
       </c>
       <c r="E123" t="s">
@@ -5785,23 +5835,23 @@
       <c r="G123" t="s">
         <v>360</v>
       </c>
-      <c r="H123" s="22"/>
-      <c r="I123" s="22"/>
-      <c r="J123" s="22"/>
-      <c r="K123" s="22"/>
+      <c r="H123" s="21"/>
+      <c r="I123" s="21"/>
+      <c r="J123" s="21"/>
+      <c r="K123" s="21"/>
       <c r="L123" t="s">
         <v>361</v>
       </c>
-      <c r="M123" s="23"/>
+      <c r="M123" s="22"/>
     </row>
     <row r="124" spans="2:15">
-      <c r="B124" s="24" t="s">
+      <c r="B124" s="23" t="s">
         <v>362</v>
       </c>
-      <c r="C124" s="25" t="s">
+      <c r="C124" s="24" t="s">
         <v>363</v>
       </c>
-      <c r="D124" s="22" t="s">
+      <c r="D124" s="21" t="s">
         <v>364</v>
       </c>
       <c r="E124" t="s">
@@ -5813,41 +5863,41 @@
       <c r="G124" t="s">
         <v>367</v>
       </c>
-      <c r="H124" s="22" t="s">
+      <c r="H124" s="21" t="s">
         <v>368</v>
       </c>
       <c r="I124" t="s">
         <v>369</v>
       </c>
-      <c r="J124" s="22"/>
-      <c r="K124" s="22"/>
-      <c r="L124" s="22"/>
+      <c r="J124" s="21"/>
+      <c r="K124" s="21"/>
+      <c r="L124" s="21"/>
       <c r="M124" s="20"/>
     </row>
     <row r="125" spans="2:15">
-      <c r="B125" s="24" t="s">
+      <c r="B125" s="23" t="s">
         <v>370</v>
       </c>
-      <c r="C125" s="24" t="s">
+      <c r="C125" s="23" t="s">
         <v>371</v>
       </c>
-      <c r="D125" s="22" t="s">
+      <c r="D125" s="21" t="s">
         <v>372</v>
       </c>
       <c r="E125" t="s">
         <v>373</v>
       </c>
-      <c r="F125" s="22" t="s">
+      <c r="F125" s="21" t="s">
         <v>374</v>
       </c>
       <c r="G125" t="s">
         <v>375</v>
       </c>
-      <c r="H125" s="22"/>
-      <c r="I125" s="22"/>
-      <c r="J125" s="22"/>
-      <c r="K125" s="22"/>
-      <c r="L125" s="22" t="s">
+      <c r="H125" s="21"/>
+      <c r="I125" s="21"/>
+      <c r="J125" s="21"/>
+      <c r="K125" s="21"/>
+      <c r="L125" s="21" t="s">
         <v>376</v>
       </c>
       <c r="M125" t="s">
@@ -5855,25 +5905,25 @@
       </c>
     </row>
     <row r="126" spans="2:15">
-      <c r="B126" s="24" t="s">
+      <c r="B126" s="23" t="s">
         <v>378</v>
       </c>
-      <c r="C126" s="24" t="s">
+      <c r="C126" s="23" t="s">
         <v>379</v>
       </c>
-      <c r="D126" s="22" t="s">
+      <c r="D126" s="21" t="s">
         <v>380</v>
       </c>
       <c r="E126" t="s">
         <v>381</v>
       </c>
-      <c r="F126" s="22"/>
-      <c r="G126" s="22"/>
-      <c r="H126" s="22"/>
-      <c r="I126" s="22"/>
-      <c r="J126" s="22"/>
-      <c r="K126" s="22"/>
-      <c r="L126" s="22" t="s">
+      <c r="F126" s="21"/>
+      <c r="G126" s="21"/>
+      <c r="H126" s="21"/>
+      <c r="I126" s="21"/>
+      <c r="J126" s="21"/>
+      <c r="K126" s="21"/>
+      <c r="L126" s="21" t="s">
         <v>382</v>
       </c>
       <c r="M126" t="s">
@@ -5881,62 +5931,62 @@
       </c>
     </row>
     <row r="127" spans="2:15">
-      <c r="B127" s="24" t="s">
+      <c r="B127" s="23" t="s">
         <v>384</v>
       </c>
-      <c r="C127" s="26" t="s">
+      <c r="C127" s="25" t="s">
         <v>385</v>
       </c>
-      <c r="D127" s="22" t="s">
+      <c r="D127" s="21" t="s">
         <v>386</v>
       </c>
       <c r="E127" t="s">
         <v>387</v>
       </c>
-      <c r="F127" s="22" t="s">
+      <c r="F127" s="21" t="s">
         <v>388</v>
       </c>
       <c r="G127" t="s">
         <v>389</v>
       </c>
-      <c r="H127" s="22"/>
-      <c r="I127" s="22"/>
-      <c r="J127" s="22"/>
-      <c r="K127" s="22"/>
-      <c r="L127" s="27"/>
-      <c r="M127" s="27"/>
+      <c r="H127" s="21"/>
+      <c r="I127" s="21"/>
+      <c r="J127" s="21"/>
+      <c r="K127" s="21"/>
+      <c r="L127" s="26"/>
+      <c r="M127" s="26"/>
     </row>
     <row r="128" spans="2:15">
-      <c r="B128" s="24" t="s">
+      <c r="B128" s="23" t="s">
         <v>390</v>
       </c>
-      <c r="C128" s="26" t="s">
+      <c r="C128" s="25" t="s">
         <v>391</v>
       </c>
-      <c r="D128" s="22" t="s">
+      <c r="D128" s="21" t="s">
         <v>392</v>
       </c>
-      <c r="E128" s="22" t="s">
+      <c r="E128" s="21" t="s">
         <v>393</v>
       </c>
-      <c r="F128" s="22" t="s">
+      <c r="F128" s="21" t="s">
         <v>394</v>
       </c>
-      <c r="G128" s="22" t="s">
+      <c r="G128" s="21" t="s">
         <v>395</v>
       </c>
-      <c r="H128" s="22" t="s">
+      <c r="H128" s="21" t="s">
         <v>396</v>
       </c>
-      <c r="I128" s="22" t="s">
+      <c r="I128" s="21" t="s">
         <v>397</v>
       </c>
-      <c r="J128" s="22"/>
-      <c r="K128" s="22"/>
-      <c r="L128" s="22" t="s">
+      <c r="J128" s="21"/>
+      <c r="K128" s="21"/>
+      <c r="L128" s="21" t="s">
         <v>398</v>
       </c>
-      <c r="M128" s="22" t="s">
+      <c r="M128" s="21" t="s">
         <v>399</v>
       </c>
     </row>
@@ -6008,4 +6058,306 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId56"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q6:Q7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="39.140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="4"/>
+    <col min="10" max="10" width="18.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27">
+      <c r="A1" s="29" t="s">
+        <v>400</v>
+      </c>
+      <c r="B1" s="35">
+        <v>10</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>402</v>
+      </c>
+      <c r="G1" s="35">
+        <v>29</v>
+      </c>
+      <c r="H1"/>
+      <c r="J1" s="20" t="s">
+        <v>401</v>
+      </c>
+      <c r="K1" s="29">
+        <v>6</v>
+      </c>
+      <c r="AA1" s="29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27">
+      <c r="A2" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="J2" s="28" t="s">
+        <v>355</v>
+      </c>
+      <c r="R2" s="4"/>
+    </row>
+    <row r="3" spans="1:27">
+      <c r="A3" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="J3" s="28" t="s">
+        <v>362</v>
+      </c>
+      <c r="R3" s="4"/>
+    </row>
+    <row r="4" spans="1:27">
+      <c r="A4" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>370</v>
+      </c>
+      <c r="N4" s="20"/>
+      <c r="R4" s="4"/>
+    </row>
+    <row r="5" spans="1:27">
+      <c r="A5" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="J5" s="28" t="s">
+        <v>378</v>
+      </c>
+      <c r="N5" s="20"/>
+      <c r="R5" s="4"/>
+    </row>
+    <row r="6" spans="1:27">
+      <c r="A6" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="J6" s="28" t="s">
+        <v>384</v>
+      </c>
+      <c r="N6" s="23"/>
+      <c r="R6" s="4"/>
+    </row>
+    <row r="7" spans="1:27">
+      <c r="A7" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="J7" s="28" t="s">
+        <v>390</v>
+      </c>
+      <c r="R7" s="4"/>
+    </row>
+    <row r="8" spans="1:27">
+      <c r="A8" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="R8" s="4"/>
+    </row>
+    <row r="9" spans="1:27">
+      <c r="A9" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="R9" s="4"/>
+    </row>
+    <row r="10" spans="1:27">
+      <c r="A10" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="R10" s="4"/>
+    </row>
+    <row r="11" spans="1:27">
+      <c r="A11" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="R11" s="4"/>
+    </row>
+    <row r="12" spans="1:27">
+      <c r="F12" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="R12" s="4"/>
+    </row>
+    <row r="13" spans="1:27">
+      <c r="F13" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="R13" s="4"/>
+    </row>
+    <row r="14" spans="1:27">
+      <c r="F14" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="R14" s="4"/>
+    </row>
+    <row r="15" spans="1:27">
+      <c r="F15" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="R15" s="4"/>
+    </row>
+    <row r="16" spans="1:27">
+      <c r="F16" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="R16" s="4"/>
+    </row>
+    <row r="17" spans="6:18">
+      <c r="F17" s="33" t="s">
+        <v>192</v>
+      </c>
+      <c r="R17" s="4"/>
+    </row>
+    <row r="18" spans="6:18">
+      <c r="F18" s="33" t="s">
+        <v>199</v>
+      </c>
+      <c r="R18" s="4"/>
+    </row>
+    <row r="19" spans="6:18">
+      <c r="F19" s="33" t="s">
+        <v>204</v>
+      </c>
+      <c r="R19" s="4"/>
+    </row>
+    <row r="20" spans="6:18">
+      <c r="F20" s="33" t="s">
+        <v>209</v>
+      </c>
+      <c r="R20" s="4"/>
+    </row>
+    <row r="21" spans="6:18">
+      <c r="F21" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="R21" s="4"/>
+    </row>
+    <row r="22" spans="6:18">
+      <c r="F22" s="33" t="s">
+        <v>217</v>
+      </c>
+      <c r="R22" s="4"/>
+    </row>
+    <row r="23" spans="6:18">
+      <c r="F23" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="R23" s="4"/>
+    </row>
+    <row r="24" spans="6:18">
+      <c r="F24" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="R24" s="4"/>
+    </row>
+    <row r="25" spans="6:18">
+      <c r="F25" s="33" t="s">
+        <v>225</v>
+      </c>
+      <c r="R25" s="4"/>
+    </row>
+    <row r="26" spans="6:18">
+      <c r="F26" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="R26" s="4"/>
+    </row>
+    <row r="27" spans="6:18">
+      <c r="F27" s="33" t="s">
+        <v>235</v>
+      </c>
+      <c r="R27" s="4"/>
+    </row>
+    <row r="28" spans="6:18">
+      <c r="F28" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="R28" s="4"/>
+    </row>
+    <row r="29" spans="6:18">
+      <c r="F29" s="33" t="s">
+        <v>249</v>
+      </c>
+      <c r="R29" s="4"/>
+    </row>
+    <row r="30" spans="6:18">
+      <c r="F30" s="34" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="41" spans="5:8">
+      <c r="H41" s="30"/>
+    </row>
+    <row r="42" spans="5:8">
+      <c r="H42" s="30"/>
+    </row>
+    <row r="43" spans="5:8">
+      <c r="H43" s="30"/>
+    </row>
+    <row r="44" spans="5:8">
+      <c r="H44" s="31"/>
+    </row>
+    <row r="45" spans="5:8">
+      <c r="H45" s="31"/>
+    </row>
+    <row r="46" spans="5:8">
+      <c r="E46" s="23"/>
+      <c r="H46" s="31"/>
+    </row>
+    <row r="47" spans="5:8">
+      <c r="E47" s="23"/>
+      <c r="H47" s="31"/>
+    </row>
+    <row r="48" spans="5:8">
+      <c r="E48" s="23"/>
+      <c r="H48" s="31"/>
+    </row>
+    <row r="49" spans="5:5">
+      <c r="E49" s="23"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="G1 B1 H2:H10 H40:H1048576 R2:R29">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Twitter Sentiment - Local/twitternames.xlsx
+++ b/Twitter Sentiment - Local/twitternames.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11775" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11775"/>
   </bookViews>
   <sheets>
     <sheet name="Brexit" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="408">
   <si>
     <t>LibDem</t>
   </si>
@@ -1238,6 +1238,18 @@
   </si>
   <si>
     <t>REJECTED</t>
+  </si>
+  <si>
+    <t>Rejected</t>
+  </si>
+  <si>
+    <t>Maybe reject as they don't all have twitter accounts</t>
+  </si>
+  <si>
+    <t>One Person</t>
+  </si>
+  <si>
+    <t>Four people</t>
   </si>
 </sst>
 </file>
@@ -1377,7 +1389,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1411,9 +1423,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1422,8 +1431,17 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1724,8 +1742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2189,8 +2207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q128"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="C127" sqref="C127"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="B122" sqref="B122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5704,26 +5722,26 @@
     <row r="119" spans="2:15">
       <c r="B119" s="20"/>
       <c r="C119" s="20"/>
-      <c r="D119" s="27" t="s">
+      <c r="D119" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="E119" s="27"/>
-      <c r="F119" s="27" t="s">
+      <c r="E119" s="34"/>
+      <c r="F119" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="G119" s="27"/>
-      <c r="H119" s="27" t="s">
+      <c r="G119" s="34"/>
+      <c r="H119" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="I119" s="27"/>
-      <c r="J119" s="27" t="s">
+      <c r="I119" s="34"/>
+      <c r="J119" s="34" t="s">
         <v>339</v>
       </c>
-      <c r="K119" s="27"/>
-      <c r="L119" s="27" t="s">
+      <c r="K119" s="34"/>
+      <c r="L119" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="M119" s="27"/>
+      <c r="M119" s="34"/>
     </row>
     <row r="120" spans="2:15">
       <c r="B120" s="20" t="s">
@@ -6064,297 +6082,365 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q6:Q7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="39.140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.140625" style="4"/>
     <col min="10" max="10" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
         <v>400</v>
       </c>
-      <c r="B1" s="35">
+      <c r="B1" s="33">
         <v>10</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="28" t="s">
         <v>402</v>
       </c>
-      <c r="G1" s="35">
-        <v>29</v>
+      <c r="G1" s="33">
+        <v>4</v>
       </c>
       <c r="H1"/>
       <c r="J1" s="20" t="s">
         <v>401</v>
       </c>
-      <c r="K1" s="29">
+      <c r="K1" s="28">
+        <v>7</v>
+      </c>
+      <c r="AA1" s="28">
         <v>6</v>
       </c>
-      <c r="AA1" s="29">
-        <v>6</v>
-      </c>
     </row>
     <row r="2" spans="1:27">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="J2" s="28" t="s">
+      <c r="J2" s="39" t="s">
         <v>355</v>
       </c>
+      <c r="K2" t="s">
+        <v>406</v>
+      </c>
       <c r="R2" s="4"/>
     </row>
     <row r="3" spans="1:27">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="J3" s="28" t="s">
+      <c r="J3" s="27" t="s">
         <v>362</v>
       </c>
       <c r="R3" s="4"/>
     </row>
     <row r="4" spans="1:27">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="J4" s="28" t="s">
+      <c r="G4" t="s">
+        <v>406</v>
+      </c>
+      <c r="J4" s="27" t="s">
         <v>370</v>
       </c>
       <c r="N4" s="20"/>
       <c r="R4" s="4"/>
     </row>
     <row r="5" spans="1:27">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="B5" t="s">
+        <v>406</v>
+      </c>
+      <c r="F5" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="J5" s="28" t="s">
+      <c r="J5" s="27" t="s">
         <v>378</v>
       </c>
       <c r="N5" s="20"/>
       <c r="R5" s="4"/>
     </row>
     <row r="6" spans="1:27">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="J6" s="28" t="s">
+      <c r="G6" s="37" t="s">
+        <v>404</v>
+      </c>
+      <c r="J6" s="27" t="s">
         <v>384</v>
       </c>
       <c r="N6" s="23"/>
       <c r="R6" s="4"/>
     </row>
     <row r="7" spans="1:27">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="B7" t="s">
+        <v>406</v>
+      </c>
+      <c r="F7" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="J7" s="28" t="s">
+      <c r="G7" s="37"/>
+      <c r="J7" s="27" t="s">
         <v>390</v>
       </c>
       <c r="R7" s="4"/>
     </row>
     <row r="8" spans="1:27">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="33" t="s">
+      <c r="B8" t="s">
+        <v>406</v>
+      </c>
+      <c r="F8" s="36" t="s">
         <v>143</v>
       </c>
+      <c r="G8" s="37"/>
+      <c r="J8" s="35" t="s">
+        <v>344</v>
+      </c>
+      <c r="K8" t="s">
+        <v>407</v>
+      </c>
       <c r="R8" s="4"/>
     </row>
     <row r="9" spans="1:27">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="33" t="s">
+      <c r="B9" t="s">
+        <v>406</v>
+      </c>
+      <c r="F9" s="36" t="s">
         <v>147</v>
       </c>
+      <c r="G9" s="37"/>
       <c r="R9" s="4"/>
     </row>
     <row r="10" spans="1:27">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="33" t="s">
+      <c r="F10" s="36" t="s">
         <v>152</v>
       </c>
+      <c r="G10" s="37"/>
       <c r="R10" s="4"/>
     </row>
     <row r="11" spans="1:27">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="33" t="s">
+      <c r="B11" t="s">
+        <v>406</v>
+      </c>
+      <c r="F11" s="36" t="s">
         <v>158</v>
       </c>
+      <c r="G11" s="37"/>
       <c r="R11" s="4"/>
     </row>
     <row r="12" spans="1:27">
-      <c r="F12" s="33" t="s">
+      <c r="F12" s="36" t="s">
         <v>163</v>
       </c>
+      <c r="G12" s="37"/>
       <c r="R12" s="4"/>
     </row>
     <row r="13" spans="1:27">
-      <c r="F13" s="33" t="s">
+      <c r="F13" s="36" t="s">
         <v>168</v>
       </c>
+      <c r="G13" s="37"/>
       <c r="R13" s="4"/>
     </row>
     <row r="14" spans="1:27">
-      <c r="F14" s="33" t="s">
+      <c r="F14" s="36" t="s">
         <v>173</v>
       </c>
+      <c r="G14" s="37"/>
       <c r="R14" s="4"/>
     </row>
     <row r="15" spans="1:27">
-      <c r="F15" s="33" t="s">
+      <c r="F15" s="36" t="s">
         <v>182</v>
       </c>
+      <c r="G15" s="37"/>
       <c r="R15" s="4"/>
     </row>
     <row r="16" spans="1:27">
-      <c r="F16" s="33" t="s">
+      <c r="F16" s="36" t="s">
         <v>187</v>
       </c>
+      <c r="G16" s="37"/>
       <c r="R16" s="4"/>
     </row>
-    <row r="17" spans="6:18">
-      <c r="F17" s="33" t="s">
+    <row r="17" spans="1:18">
+      <c r="F17" s="36" t="s">
         <v>192</v>
       </c>
+      <c r="G17" s="37"/>
       <c r="R17" s="4"/>
     </row>
-    <row r="18" spans="6:18">
-      <c r="F18" s="33" t="s">
+    <row r="18" spans="1:18">
+      <c r="F18" s="36" t="s">
         <v>199</v>
       </c>
+      <c r="G18" s="37"/>
+      <c r="J18" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
       <c r="R18" s="4"/>
     </row>
-    <row r="19" spans="6:18">
-      <c r="F19" s="33" t="s">
+    <row r="19" spans="1:18">
+      <c r="A19"/>
+      <c r="F19" s="36" t="s">
         <v>204</v>
       </c>
+      <c r="G19" s="37"/>
       <c r="R19" s="4"/>
     </row>
-    <row r="20" spans="6:18">
-      <c r="F20" s="33" t="s">
+    <row r="20" spans="1:18">
+      <c r="A20"/>
+      <c r="F20" s="36" t="s">
         <v>209</v>
       </c>
+      <c r="G20" s="37"/>
       <c r="R20" s="4"/>
     </row>
-    <row r="21" spans="6:18">
-      <c r="F21" s="33" t="s">
+    <row r="21" spans="1:18">
+      <c r="A21"/>
+      <c r="F21" s="36" t="s">
         <v>213</v>
       </c>
+      <c r="G21" s="37"/>
       <c r="R21" s="4"/>
     </row>
-    <row r="22" spans="6:18">
-      <c r="F22" s="33" t="s">
+    <row r="22" spans="1:18">
+      <c r="A22"/>
+      <c r="F22" s="36" t="s">
         <v>217</v>
       </c>
+      <c r="G22" s="37"/>
       <c r="R22" s="4"/>
     </row>
-    <row r="23" spans="6:18">
-      <c r="F23" s="33" t="s">
+    <row r="23" spans="1:18">
+      <c r="F23" s="36" t="s">
         <v>220</v>
       </c>
+      <c r="G23" s="37"/>
       <c r="R23" s="4"/>
     </row>
-    <row r="24" spans="6:18">
-      <c r="F24" s="33" t="s">
+    <row r="24" spans="1:18">
+      <c r="F24" s="36" t="s">
         <v>224</v>
       </c>
+      <c r="G24" s="37"/>
       <c r="R24" s="4"/>
     </row>
-    <row r="25" spans="6:18">
-      <c r="F25" s="33" t="s">
+    <row r="25" spans="1:18">
+      <c r="F25" s="36" t="s">
         <v>225</v>
       </c>
+      <c r="G25" s="37"/>
       <c r="R25" s="4"/>
     </row>
-    <row r="26" spans="6:18">
-      <c r="F26" s="33" t="s">
+    <row r="26" spans="1:18">
+      <c r="F26" s="36" t="s">
         <v>231</v>
       </c>
+      <c r="G26" s="37"/>
       <c r="R26" s="4"/>
     </row>
-    <row r="27" spans="6:18">
-      <c r="F27" s="33" t="s">
+    <row r="27" spans="1:18">
+      <c r="F27" s="36" t="s">
         <v>235</v>
       </c>
+      <c r="G27" s="37"/>
       <c r="R27" s="4"/>
     </row>
-    <row r="28" spans="6:18">
-      <c r="F28" s="33" t="s">
+    <row r="28" spans="1:18">
+      <c r="F28" s="36" t="s">
         <v>240</v>
       </c>
+      <c r="G28" s="37"/>
       <c r="R28" s="4"/>
     </row>
-    <row r="29" spans="6:18">
-      <c r="F29" s="33" t="s">
+    <row r="29" spans="1:18">
+      <c r="F29" s="36" t="s">
         <v>249</v>
       </c>
+      <c r="G29" s="37"/>
       <c r="R29" s="4"/>
     </row>
-    <row r="30" spans="6:18">
-      <c r="F30" s="34" t="s">
-        <v>340</v>
-      </c>
+    <row r="30" spans="1:18">
+      <c r="F30" s="29"/>
+      <c r="G30" s="37"/>
     </row>
     <row r="41" spans="5:8">
-      <c r="H41" s="30"/>
+      <c r="H41" s="29"/>
     </row>
     <row r="42" spans="5:8">
-      <c r="H42" s="30"/>
+      <c r="H42" s="29"/>
     </row>
     <row r="43" spans="5:8">
-      <c r="H43" s="30"/>
+      <c r="H43" s="29"/>
     </row>
     <row r="44" spans="5:8">
-      <c r="H44" s="31"/>
+      <c r="H44" s="30"/>
     </row>
     <row r="45" spans="5:8">
-      <c r="H45" s="31"/>
+      <c r="H45" s="30"/>
     </row>
     <row r="46" spans="5:8">
       <c r="E46" s="23"/>
-      <c r="H46" s="31"/>
+      <c r="H46" s="30"/>
     </row>
     <row r="47" spans="5:8">
       <c r="E47" s="23"/>
-      <c r="H47" s="31"/>
+      <c r="H47" s="30"/>
     </row>
     <row r="48" spans="5:8">
       <c r="E48" s="23"/>
-      <c r="H48" s="31"/>
+      <c r="H48" s="30"/>
     </row>
     <row r="49" spans="5:5">
       <c r="E49" s="23"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G6:G30"/>
+  </mergeCells>
   <conditionalFormatting sqref="G1 B1 H2:H10 H40:H1048576 R2:R29">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
